--- a/public/stylesheets/5dataroom.xlsx
+++ b/public/stylesheets/5dataroom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heondolee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heondolee/Desktop/인스빌/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC2062-DB13-9F41-AFC8-303155E6036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33382A10-3DD2-6D4C-9799-C87849FC4499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="2160" windowWidth="28300" windowHeight="17440" xr2:uid="{BEAF93B2-B101-694A-B255-977B6DD9AF63}"/>
   </bookViews>
@@ -6729,6 +6729,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -6768,14 +6771,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6784,10 +6784,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/m/d\ hh:mm"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6827,8 +6827,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{55224145-B927-6646-82E9-39184D7C665E}" uniqueName="1" name="Title" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{802B2091-8498-F04B-A855-F574F71CF35B}" uniqueName="2" name="Author" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B0300C81-FDBA-024B-B144-178C63388C08}" uniqueName="3" name="Date" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{65DFA007-17AC-AC46-B680-8254BF17F591}" uniqueName="4" name="Content" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B0300C81-FDBA-024B-B144-178C63388C08}" uniqueName="3" name="Date" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{65DFA007-17AC-AC46-B680-8254BF17F591}" uniqueName="4" name="Content" queryTableFieldId="4" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7151,17 +7151,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E689792-AEF2-864E-92C9-783C81C16F90}">
-  <dimension ref="A1:D865"/>
+  <dimension ref="A1:D546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D532" sqref="D18:D532"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7172,7 +7172,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -12402,4326 +12402,2412 @@
       </c>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="2" t="s">
+      <c r="A375" t="s">
         <v>747</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" t="s">
         <v>5</v>
       </c>
       <c r="C375" s="1">
         <v>44690.576388888891</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D375" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="2" t="s">
+      <c r="A376" t="s">
         <v>749</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" t="s">
         <v>5</v>
       </c>
       <c r="C376" s="1">
         <v>44684.746527777781</v>
       </c>
-      <c r="D376" s="2" t="s">
+      <c r="D376" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="377" spans="1:4">
-      <c r="A377" s="2" t="s">
+      <c r="A377" t="s">
         <v>751</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" t="s">
         <v>5</v>
       </c>
       <c r="C377" s="1">
         <v>44679.61041666667</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D377" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" s="2" t="s">
+      <c r="A378" t="s">
         <v>753</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" t="s">
         <v>5</v>
       </c>
       <c r="C378" s="1">
         <v>44679.59097222222</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D378" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="2" t="s">
+      <c r="A379" t="s">
         <v>755</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" t="s">
         <v>5</v>
       </c>
       <c r="C379" s="1">
         <v>44679.590277777781</v>
       </c>
-      <c r="D379" s="2" t="s">
+      <c r="D379" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="2" t="s">
+      <c r="A380" t="s">
         <v>757</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" t="s">
         <v>5</v>
       </c>
       <c r="C380" s="1">
         <v>44679.48541666667</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D380" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="2" t="s">
+      <c r="A381" t="s">
         <v>759</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" t="s">
         <v>5</v>
       </c>
       <c r="C381" s="1">
         <v>44679.474305555559</v>
       </c>
-      <c r="D381" s="2" t="s">
+      <c r="D381" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="2" t="s">
+      <c r="A382" t="s">
         <v>761</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" t="s">
         <v>5</v>
       </c>
       <c r="C382" s="1">
         <v>44678.743055555555</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D382" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="2" t="s">
+      <c r="A383" t="s">
         <v>763</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" t="s">
         <v>5</v>
       </c>
       <c r="C383" s="1">
         <v>44678.71597222222</v>
       </c>
-      <c r="D383" s="2" t="s">
+      <c r="D383" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="2" t="s">
+      <c r="A384" t="s">
         <v>765</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" t="s">
         <v>5</v>
       </c>
       <c r="C384" s="1">
         <v>44678.694444444445</v>
       </c>
-      <c r="D384" s="2" t="s">
+      <c r="D384" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="2" t="s">
+      <c r="A385" t="s">
         <v>767</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" t="s">
         <v>5</v>
       </c>
       <c r="C385" s="1">
         <v>44678.694444444445</v>
       </c>
-      <c r="D385" s="2" t="s">
+      <c r="D385" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="2" t="s">
+      <c r="A386" t="s">
         <v>769</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" t="s">
         <v>5</v>
       </c>
       <c r="C386" s="1">
         <v>44677.737500000003</v>
       </c>
-      <c r="D386" s="2" t="s">
+      <c r="D386" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="2" t="s">
+      <c r="A387" t="s">
         <v>565</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" t="s">
         <v>5</v>
       </c>
       <c r="C387" s="1">
         <v>44677.714583333334</v>
       </c>
-      <c r="D387" s="2" t="s">
+      <c r="D387" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="2" t="s">
+      <c r="A388" t="s">
         <v>772</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" t="s">
         <v>5</v>
       </c>
       <c r="C388" s="1">
         <v>44671.650694444441</v>
       </c>
-      <c r="D388" s="2" t="s">
+      <c r="D388" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="2" t="s">
+      <c r="A389" t="s">
         <v>774</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" t="s">
         <v>5</v>
       </c>
       <c r="C389" s="1">
         <v>44665.380555555559</v>
       </c>
-      <c r="D389" s="2" t="s">
+      <c r="D389" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="2" t="s">
+      <c r="A390" t="s">
         <v>776</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" t="s">
         <v>5</v>
       </c>
       <c r="C390" s="1">
         <v>44664.40347222222</v>
       </c>
-      <c r="D390" s="2" t="s">
+      <c r="D390" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="2" t="s">
+      <c r="A391" t="s">
         <v>778</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" t="s">
         <v>5</v>
       </c>
       <c r="C391" s="1">
         <v>44659.727083333331</v>
       </c>
-      <c r="D391" s="2" t="s">
+      <c r="D391" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="2" t="s">
+      <c r="A392" t="s">
         <v>780</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" t="s">
         <v>5</v>
       </c>
       <c r="C392" s="1">
         <v>44659.611805555556</v>
       </c>
-      <c r="D392" s="2" t="s">
+      <c r="D392" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="2" t="s">
+      <c r="A393" t="s">
         <v>782</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" t="s">
         <v>5</v>
       </c>
       <c r="C393" s="1">
         <v>44659.497916666667</v>
       </c>
-      <c r="D393" s="2" t="s">
+      <c r="D393" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="2" t="s">
+      <c r="A394" t="s">
         <v>784</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" t="s">
         <v>5</v>
       </c>
       <c r="C394" s="1">
         <v>44656.47152777778</v>
       </c>
-      <c r="D394" s="2" t="s">
+      <c r="D394" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="2" t="s">
+      <c r="A395" t="s">
         <v>786</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" t="s">
         <v>5</v>
       </c>
       <c r="C395" s="1">
         <v>44656.45416666667</v>
       </c>
-      <c r="D395" s="2" t="s">
+      <c r="D395" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="2" t="s">
+      <c r="A396" t="s">
         <v>788</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" t="s">
         <v>5</v>
       </c>
       <c r="C396" s="1">
         <v>44656.443055555559</v>
       </c>
-      <c r="D396" s="2" t="s">
+      <c r="D396" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="2" t="s">
+      <c r="A397" t="s">
         <v>790</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" t="s">
         <v>5</v>
       </c>
       <c r="C397" s="1">
         <v>44655.404861111114</v>
       </c>
-      <c r="D397" s="2" t="s">
+      <c r="D397" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="2" t="s">
+      <c r="A398" t="s">
         <v>151</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" t="s">
         <v>5</v>
       </c>
       <c r="C398" s="1">
         <v>44651.679861111108</v>
       </c>
-      <c r="D398" s="2" t="s">
+      <c r="D398" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="2" t="s">
+      <c r="A399" t="s">
         <v>793</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" t="s">
         <v>5</v>
       </c>
       <c r="C399" s="1">
         <v>44651.640972222223</v>
       </c>
-      <c r="D399" s="2" t="s">
+      <c r="D399" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="2" t="s">
+      <c r="A400" t="s">
         <v>795</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" t="s">
         <v>5</v>
       </c>
       <c r="C400" s="1">
         <v>44651.635416666664</v>
       </c>
-      <c r="D400" s="2" t="s">
+      <c r="D400" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="2" t="s">
+      <c r="A401" t="s">
         <v>797</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" t="s">
         <v>5</v>
       </c>
       <c r="C401" s="1">
         <v>44651.404166666667</v>
       </c>
-      <c r="D401" s="2" t="s">
+      <c r="D401" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="2" t="s">
+      <c r="A402" t="s">
         <v>799</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" t="s">
         <v>5</v>
       </c>
       <c r="C402" s="1">
         <v>44650.54791666667</v>
       </c>
-      <c r="D402" s="2" t="s">
+      <c r="D402" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="2" t="s">
+      <c r="A403" t="s">
         <v>801</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" t="s">
         <v>5</v>
       </c>
       <c r="C403" s="1">
         <v>44649.370138888888</v>
       </c>
-      <c r="D403" s="2" t="s">
+      <c r="D403" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="2" t="s">
+      <c r="A404" t="s">
         <v>803</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" t="s">
         <v>5</v>
       </c>
       <c r="C404" s="1">
         <v>44645.46875</v>
       </c>
-      <c r="D404" s="2" t="s">
+      <c r="D404" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="2" t="s">
+      <c r="A405" t="s">
         <v>805</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" t="s">
         <v>5</v>
       </c>
       <c r="C405" s="1">
         <v>44643.569444444445</v>
       </c>
-      <c r="D405" s="2" t="s">
+      <c r="D405" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="2" t="s">
+      <c r="A406" t="s">
         <v>807</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" t="s">
         <v>5</v>
       </c>
       <c r="C406" s="1">
         <v>44643.567361111112</v>
       </c>
-      <c r="D406" s="2" t="s">
+      <c r="D406" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="2" t="s">
+      <c r="A407" t="s">
         <v>809</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" t="s">
         <v>5</v>
       </c>
       <c r="C407" s="1">
         <v>44643.441666666666</v>
       </c>
-      <c r="D407" s="2" t="s">
+      <c r="D407" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="2" t="s">
+      <c r="A408" t="s">
         <v>811</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" t="s">
         <v>5</v>
       </c>
       <c r="C408" s="1">
         <v>44642.463888888888</v>
       </c>
-      <c r="D408" s="2" t="s">
+      <c r="D408" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="2" t="s">
+      <c r="A409" t="s">
         <v>813</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" t="s">
         <v>5</v>
       </c>
       <c r="C409" s="1">
         <v>44638.473611111112</v>
       </c>
-      <c r="D409" s="2" t="s">
+      <c r="D409" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="2" t="s">
+      <c r="A410" t="s">
         <v>815</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" t="s">
         <v>5</v>
       </c>
       <c r="C410" s="1">
         <v>44637.726388888892</v>
       </c>
-      <c r="D410" s="2" t="s">
+      <c r="D410" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="2" t="s">
+      <c r="A411" t="s">
         <v>817</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" t="s">
         <v>5</v>
       </c>
       <c r="C411" s="1">
         <v>44636.756944444445</v>
       </c>
-      <c r="D411" s="2" t="s">
+      <c r="D411" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="2" t="s">
+      <c r="A412" t="s">
         <v>819</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" t="s">
         <v>5</v>
       </c>
       <c r="C412" s="1">
         <v>44635.738194444442</v>
       </c>
-      <c r="D412" s="2" t="s">
+      <c r="D412" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="2" t="s">
+      <c r="A413" t="s">
         <v>821</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" t="s">
         <v>5</v>
       </c>
       <c r="C413" s="1">
         <v>44634.493750000001</v>
       </c>
-      <c r="D413" s="2" t="s">
+      <c r="D413" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="2" t="s">
+      <c r="A414" t="s">
         <v>823</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" t="s">
         <v>5</v>
       </c>
       <c r="C414" s="1">
         <v>44631.392361111109</v>
       </c>
-      <c r="D414" s="2" t="s">
+      <c r="D414" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="415" spans="1:4">
-      <c r="A415" s="2" t="s">
+      <c r="A415" t="s">
         <v>825</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" t="s">
         <v>5</v>
       </c>
       <c r="C415" s="1">
         <v>44630.69027777778</v>
       </c>
-      <c r="D415" s="2" t="s">
+      <c r="D415" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="2" t="s">
+      <c r="A416" t="s">
         <v>827</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" t="s">
         <v>5</v>
       </c>
       <c r="C416" s="1">
         <v>44627.622916666667</v>
       </c>
-      <c r="D416" s="2" t="s">
+      <c r="D416" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="417" spans="1:4">
-      <c r="A417" s="2" t="s">
+      <c r="A417" t="s">
         <v>829</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" t="s">
         <v>5</v>
       </c>
       <c r="C417" s="1">
         <v>44617.579861111109</v>
       </c>
-      <c r="D417" s="2" t="s">
+      <c r="D417" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="2" t="s">
+      <c r="A418" t="s">
         <v>831</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" t="s">
         <v>5</v>
       </c>
       <c r="C418" s="1">
         <v>44616.696527777778</v>
       </c>
-      <c r="D418" s="2" t="s">
+      <c r="D418" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="2" t="s">
+      <c r="A419" t="s">
         <v>833</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" t="s">
         <v>5</v>
       </c>
       <c r="C419" s="1">
         <v>44616.399305555555</v>
       </c>
-      <c r="D419" s="2" t="s">
+      <c r="D419" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="2" t="s">
+      <c r="A420" t="s">
         <v>835</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" t="s">
         <v>5</v>
       </c>
       <c r="C420" s="1">
         <v>44615.597222222219</v>
       </c>
-      <c r="D420" s="2" t="s">
+      <c r="D420" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421" s="2" t="s">
+      <c r="A421" t="s">
         <v>837</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" t="s">
         <v>5</v>
       </c>
       <c r="C421" s="1">
         <v>44613.584027777775</v>
       </c>
-      <c r="D421" s="2" t="s">
+      <c r="D421" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="2" t="s">
+      <c r="A422" t="s">
         <v>839</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" t="s">
         <v>5</v>
       </c>
       <c r="C422" s="1">
         <v>44609.724999999999</v>
       </c>
-      <c r="D422" s="2" t="s">
+      <c r="D422" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="423" spans="1:4">
-      <c r="A423" s="2" t="s">
+      <c r="A423" t="s">
         <v>841</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" t="s">
         <v>5</v>
       </c>
       <c r="C423" s="1">
         <v>44609.628472222219</v>
       </c>
-      <c r="D423" s="2" t="s">
+      <c r="D423" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="2" t="s">
+      <c r="A424" t="s">
         <v>843</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" t="s">
         <v>5</v>
       </c>
       <c r="C424" s="1">
         <v>44609.585416666669</v>
       </c>
-      <c r="D424" s="2" t="s">
+      <c r="D424" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="425" spans="1:4">
-      <c r="A425" s="2" t="s">
+      <c r="A425" t="s">
         <v>845</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" t="s">
         <v>5</v>
       </c>
       <c r="C425" s="1">
         <v>44608.727083333331</v>
       </c>
-      <c r="D425" s="2" t="s">
+      <c r="D425" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="426" spans="1:4">
-      <c r="A426" s="2" t="s">
+      <c r="A426" t="s">
         <v>847</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" t="s">
         <v>5</v>
       </c>
       <c r="C426" s="1">
         <v>44606.67083333333</v>
       </c>
-      <c r="D426" s="2" t="s">
+      <c r="D426" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="2" t="s">
+      <c r="A427" t="s">
         <v>849</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" t="s">
         <v>5</v>
       </c>
       <c r="C427" s="1">
         <v>44606.660416666666</v>
       </c>
-      <c r="D427" s="2" t="s">
+      <c r="D427" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="2" t="s">
+      <c r="A428" t="s">
         <v>851</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" t="s">
         <v>5</v>
       </c>
       <c r="C428" s="1">
         <v>44602.553472222222</v>
       </c>
-      <c r="D428" s="2" t="s">
+      <c r="D428" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="2" t="s">
+      <c r="A429" t="s">
         <v>853</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" t="s">
         <v>5</v>
       </c>
       <c r="C429" s="1">
         <v>44602.498611111114</v>
       </c>
-      <c r="D429" s="2" t="s">
+      <c r="D429" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="2" t="s">
+      <c r="A430" t="s">
         <v>855</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" t="s">
         <v>5</v>
       </c>
       <c r="C430" s="1">
         <v>44600.565972222219</v>
       </c>
-      <c r="D430" s="2" t="s">
+      <c r="D430" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="2" t="s">
+      <c r="A431" t="s">
         <v>857</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" t="s">
         <v>5</v>
       </c>
       <c r="C431" s="1">
         <v>44595.548611111109</v>
       </c>
-      <c r="D431" s="2" t="s">
+      <c r="D431" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="432" spans="1:4">
-      <c r="A432" s="2" t="s">
+      <c r="A432" t="s">
         <v>859</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" t="s">
         <v>5</v>
       </c>
       <c r="C432" s="1">
         <v>44595.492361111108</v>
       </c>
-      <c r="D432" s="2" t="s">
+      <c r="D432" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="2" t="s">
+      <c r="A433" t="s">
         <v>861</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" t="s">
         <v>5</v>
       </c>
       <c r="C433" s="1">
         <v>44589.617361111108</v>
       </c>
-      <c r="D433" s="2" t="s">
+      <c r="D433" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="2" t="s">
+      <c r="A434" t="s">
         <v>863</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" t="s">
         <v>5</v>
       </c>
       <c r="C434" s="1">
         <v>44589.496527777781</v>
       </c>
-      <c r="D434" s="2" t="s">
+      <c r="D434" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="2" t="s">
+      <c r="A435" t="s">
         <v>865</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" t="s">
         <v>5</v>
       </c>
       <c r="C435" s="1">
         <v>44587.384722222225</v>
       </c>
-      <c r="D435" s="2" t="s">
+      <c r="D435" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="2" t="s">
+      <c r="A436" t="s">
         <v>867</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" t="s">
         <v>5</v>
       </c>
       <c r="C436" s="1">
         <v>44586.43472222222</v>
       </c>
-      <c r="D436" s="2" t="s">
+      <c r="D436" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="2" t="s">
+      <c r="A437" t="s">
         <v>869</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" t="s">
         <v>5</v>
       </c>
       <c r="C437" s="1">
         <v>44582.61041666667</v>
       </c>
-      <c r="D437" s="2" t="s">
+      <c r="D437" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="2" t="s">
+      <c r="A438" t="s">
         <v>871</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" t="s">
         <v>5</v>
       </c>
       <c r="C438" s="1">
         <v>44582.595833333333</v>
       </c>
-      <c r="D438" s="2" t="s">
+      <c r="D438" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="439" spans="1:4">
-      <c r="A439" s="2" t="s">
+      <c r="A439" t="s">
         <v>873</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" t="s">
         <v>5</v>
       </c>
       <c r="C439" s="1">
         <v>44581.723611111112</v>
       </c>
-      <c r="D439" s="2" t="s">
+      <c r="D439" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="440" spans="1:4">
-      <c r="A440" s="2" t="s">
+      <c r="A440" t="s">
         <v>875</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" t="s">
         <v>5</v>
       </c>
       <c r="C440" s="1">
         <v>44581.588888888888</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="D440" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="2" t="s">
+      <c r="A441" t="s">
         <v>877</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" t="s">
         <v>5</v>
       </c>
       <c r="C441" s="1">
         <v>44572.738888888889</v>
       </c>
-      <c r="D441" s="2" t="s">
+      <c r="D441" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="2" t="s">
+      <c r="A442" t="s">
         <v>879</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" t="s">
         <v>5</v>
       </c>
       <c r="C442" s="1">
         <v>44566.555555555555</v>
       </c>
-      <c r="D442" s="2" t="s">
+      <c r="D442" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="443" spans="1:4">
-      <c r="A443" s="2" t="s">
+      <c r="A443" t="s">
         <v>881</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" t="s">
         <v>5</v>
       </c>
       <c r="C443" s="1">
         <v>44566.497916666667</v>
       </c>
-      <c r="D443" s="2" t="s">
+      <c r="D443" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="2" t="s">
+      <c r="A444" t="s">
         <v>883</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" t="s">
         <v>5</v>
       </c>
       <c r="C444" s="1">
         <v>44565.462500000001</v>
       </c>
-      <c r="D444" s="2" t="s">
+      <c r="D444" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="2" t="s">
+      <c r="A445" t="s">
         <v>885</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" t="s">
         <v>5</v>
       </c>
       <c r="C445" s="1">
         <v>44564.74722222222</v>
       </c>
-      <c r="D445" s="2" t="s">
+      <c r="D445" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="2" t="s">
+      <c r="A446" t="s">
         <v>887</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" t="s">
         <v>5</v>
       </c>
       <c r="C446" s="1">
         <v>44564.7</v>
       </c>
-      <c r="D446" s="2" t="s">
+      <c r="D446" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="2" t="s">
+      <c r="A447" t="s">
         <v>889</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" t="s">
         <v>5</v>
       </c>
       <c r="C447" s="1">
         <v>44564.699305555558</v>
       </c>
-      <c r="D447" s="2" t="s">
+      <c r="D447" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="2" t="s">
+      <c r="A448" t="s">
         <v>891</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" t="s">
         <v>5</v>
       </c>
       <c r="C448" s="1">
         <v>44560.6</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="D448" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="2" t="s">
+      <c r="A449" t="s">
         <v>893</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" t="s">
         <v>5</v>
       </c>
       <c r="C449" s="1">
         <v>44560.543055555558</v>
       </c>
-      <c r="D449" s="2" t="s">
+      <c r="D449" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="2" t="s">
+      <c r="A450" t="s">
         <v>895</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" t="s">
         <v>5</v>
       </c>
       <c r="C450" s="1">
         <v>44559.709722222222</v>
       </c>
-      <c r="D450" s="2" t="s">
+      <c r="D450" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="2" t="s">
+      <c r="A451" t="s">
         <v>897</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" t="s">
         <v>5</v>
       </c>
       <c r="C451" s="1">
         <v>44557.618055555555</v>
       </c>
-      <c r="D451" s="2" t="s">
+      <c r="D451" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="2" t="s">
+      <c r="A452" t="s">
         <v>899</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" t="s">
         <v>5</v>
       </c>
       <c r="C452" s="1">
         <v>44557.591666666667</v>
       </c>
-      <c r="D452" s="2" t="s">
+      <c r="D452" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="2" t="s">
+      <c r="A453" t="s">
         <v>900</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" t="s">
         <v>5</v>
       </c>
       <c r="C453" s="1">
         <v>44554.597916666666</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="D453" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="2" t="s">
+      <c r="A454" t="s">
         <v>902</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" t="s">
         <v>5</v>
       </c>
       <c r="C454" s="1">
         <v>44551.711111111108</v>
       </c>
-      <c r="D454" s="2" t="s">
+      <c r="D454" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="2" t="s">
+      <c r="A455" t="s">
         <v>904</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" t="s">
         <v>5</v>
       </c>
       <c r="C455" s="1">
         <v>44551.64166666667</v>
       </c>
-      <c r="D455" s="2" t="s">
+      <c r="D455" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="2" t="s">
+      <c r="A456" t="s">
         <v>906</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" t="s">
         <v>5</v>
       </c>
       <c r="C456" s="1">
         <v>44551.598611111112</v>
       </c>
-      <c r="D456" s="2" t="s">
+      <c r="D456" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="2" t="s">
+      <c r="A457" t="s">
         <v>908</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" t="s">
         <v>5</v>
       </c>
       <c r="C457" s="1">
         <v>44551.584722222222</v>
       </c>
-      <c r="D457" s="2" t="s">
+      <c r="D457" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="2" t="s">
+      <c r="A458" t="s">
         <v>910</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" t="s">
         <v>5</v>
       </c>
       <c r="C458" s="1">
         <v>44551.582638888889</v>
       </c>
-      <c r="D458" s="2" t="s">
+      <c r="D458" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="459" spans="1:4">
-      <c r="A459" s="2" t="s">
+      <c r="A459" t="s">
         <v>912</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" t="s">
         <v>5</v>
       </c>
       <c r="C459" s="1">
         <v>44545.67291666667</v>
       </c>
-      <c r="D459" s="2" t="s">
+      <c r="D459" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="460" spans="1:4">
-      <c r="A460" s="2" t="s">
+      <c r="A460" t="s">
         <v>914</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" t="s">
         <v>5</v>
       </c>
       <c r="C460" s="1">
         <v>44544.648611111108</v>
       </c>
-      <c r="D460" s="2" t="s">
+      <c r="D460" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="461" spans="1:4">
-      <c r="A461" s="2" t="s">
+      <c r="A461" t="s">
         <v>916</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" t="s">
         <v>5</v>
       </c>
       <c r="C461" s="1">
         <v>44544.598611111112</v>
       </c>
-      <c r="D461" s="2" t="s">
+      <c r="D461" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="2" t="s">
+      <c r="A462" t="s">
         <v>918</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" t="s">
         <v>5</v>
       </c>
       <c r="C462" s="1">
         <v>44543.609722222223</v>
       </c>
-      <c r="D462" s="2" t="s">
+      <c r="D462" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="2" t="s">
+      <c r="A463" t="s">
         <v>920</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" t="s">
         <v>5</v>
       </c>
       <c r="C463" s="1">
         <v>44540.663194444445</v>
       </c>
-      <c r="D463" s="2" t="s">
+      <c r="D463" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="2" t="s">
+      <c r="A464" t="s">
         <v>922</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" t="s">
         <v>5</v>
       </c>
       <c r="C464" s="1">
         <v>44538.46597222222</v>
       </c>
-      <c r="D464" s="2" t="s">
+      <c r="D464" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="2" t="s">
+      <c r="A465" t="s">
         <v>924</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" t="s">
         <v>5</v>
       </c>
       <c r="C465" s="1">
         <v>44538.425694444442</v>
       </c>
-      <c r="D465" s="2" t="s">
+      <c r="D465" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="2" t="s">
+      <c r="A466" t="s">
         <v>926</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" t="s">
         <v>5</v>
       </c>
       <c r="C466" s="1">
         <v>44532.604166666664</v>
       </c>
-      <c r="D466" s="2" t="s">
+      <c r="D466" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="2" t="s">
+      <c r="A467" t="s">
         <v>928</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" t="s">
         <v>5</v>
       </c>
       <c r="C467" s="1">
         <v>44525.495833333334</v>
       </c>
-      <c r="D467" s="2" t="s">
+      <c r="D467" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="2" t="s">
+      <c r="A468" t="s">
         <v>930</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" t="s">
         <v>5</v>
       </c>
       <c r="C468" s="1">
         <v>44525.447916666664</v>
       </c>
-      <c r="D468" s="2" t="s">
+      <c r="D468" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="2" t="s">
+      <c r="A469" t="s">
         <v>932</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B469" t="s">
         <v>5</v>
       </c>
       <c r="C469" s="1">
         <v>44524.6</v>
       </c>
-      <c r="D469" s="2" t="s">
+      <c r="D469" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="2" t="s">
+      <c r="A470" t="s">
         <v>934</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" t="s">
         <v>5</v>
       </c>
       <c r="C470" s="1">
         <v>44519.684027777781</v>
       </c>
-      <c r="D470" s="2" t="s">
+      <c r="D470" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="2" t="s">
+      <c r="A471" t="s">
         <v>936</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" t="s">
         <v>5</v>
       </c>
       <c r="C471" s="1">
         <v>44516.638888888891</v>
       </c>
-      <c r="D471" s="2" t="s">
+      <c r="D471" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="2" t="s">
+      <c r="A472" t="s">
         <v>938</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" t="s">
         <v>5</v>
       </c>
       <c r="C472" s="1">
         <v>44511.704861111109</v>
       </c>
-      <c r="D472" s="2" t="s">
+      <c r="D472" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="473" spans="1:4">
-      <c r="A473" s="2" t="s">
+      <c r="A473" t="s">
         <v>940</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B473" t="s">
         <v>5</v>
       </c>
       <c r="C473" s="1">
         <v>44511.479166666664</v>
       </c>
-      <c r="D473" s="2" t="s">
+      <c r="D473" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="474" spans="1:4">
-      <c r="A474" s="2" t="s">
+      <c r="A474" t="s">
         <v>942</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B474" t="s">
         <v>5</v>
       </c>
       <c r="C474" s="1">
         <v>44510.73333333333</v>
       </c>
-      <c r="D474" s="2" t="s">
+      <c r="D474" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="2" t="s">
+      <c r="A475" t="s">
         <v>944</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" t="s">
         <v>5</v>
       </c>
       <c r="C475" s="1">
         <v>44503.656944444447</v>
       </c>
-      <c r="D475" s="2" t="s">
+      <c r="D475" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="2" t="s">
+      <c r="A476" t="s">
         <v>946</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" t="s">
         <v>5</v>
       </c>
       <c r="C476" s="1">
         <v>44502.686111111114</v>
       </c>
-      <c r="D476" s="2" t="s">
+      <c r="D476" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="2" t="s">
+      <c r="A477" t="s">
         <v>948</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" t="s">
         <v>5</v>
       </c>
       <c r="C477" s="1">
         <v>44498.488194444442</v>
       </c>
-      <c r="D477" s="2" t="s">
+      <c r="D477" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="2" t="s">
+      <c r="A478" t="s">
         <v>950</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" t="s">
         <v>5</v>
       </c>
       <c r="C478" s="1">
         <v>44497.417361111111</v>
       </c>
-      <c r="D478" s="2" t="s">
+      <c r="D478" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="2" t="s">
+      <c r="A479" t="s">
         <v>952</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" t="s">
         <v>5</v>
       </c>
       <c r="C479" s="1">
         <v>44497.416666666664</v>
       </c>
-      <c r="D479" s="2" t="s">
+      <c r="D479" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="2" t="s">
+      <c r="A480" t="s">
         <v>954</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" t="s">
         <v>5</v>
       </c>
       <c r="C480" s="1">
         <v>44497.415972222225</v>
       </c>
-      <c r="D480" s="2" t="s">
+      <c r="D480" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="2" t="s">
+      <c r="A481" t="s">
         <v>956</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" t="s">
         <v>5</v>
       </c>
       <c r="C481" s="1">
         <v>44497.411805555559</v>
       </c>
-      <c r="D481" s="2" t="s">
+      <c r="D481" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="2" t="s">
+      <c r="A482" t="s">
         <v>958</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" t="s">
         <v>5</v>
       </c>
       <c r="C482" s="1">
         <v>44496.665277777778</v>
       </c>
-      <c r="D482" s="2" t="s">
+      <c r="D482" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="2" t="s">
+      <c r="A483" t="s">
         <v>960</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B483" t="s">
         <v>5</v>
       </c>
       <c r="C483" s="1">
         <v>44490.48541666667</v>
       </c>
-      <c r="D483" s="2" t="s">
+      <c r="D483" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="2" t="s">
+      <c r="A484" t="s">
         <v>962</v>
       </c>
-      <c r="B484" s="2" t="s">
+      <c r="B484" t="s">
         <v>5</v>
       </c>
       <c r="C484" s="1">
         <v>44484.649305555555</v>
       </c>
-      <c r="D484" s="2" t="s">
+      <c r="D484" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="2" t="s">
+      <c r="A485" t="s">
         <v>964</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B485" t="s">
         <v>5</v>
       </c>
       <c r="C485" s="1">
         <v>44483.481944444444</v>
       </c>
-      <c r="D485" s="2" t="s">
+      <c r="D485" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="2" t="s">
+      <c r="A486" t="s">
         <v>966</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" t="s">
         <v>5</v>
       </c>
       <c r="C486" s="1">
         <v>44483.443749999999</v>
       </c>
-      <c r="D486" s="2" t="s">
+      <c r="D486" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="2" t="s">
+      <c r="A487" t="s">
         <v>968</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B487" t="s">
         <v>5</v>
       </c>
       <c r="C487" s="1">
         <v>44477.658333333333</v>
       </c>
-      <c r="D487" s="2" t="s">
+      <c r="D487" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="2" t="s">
+      <c r="A488" t="s">
         <v>970</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" t="s">
         <v>5</v>
       </c>
       <c r="C488" s="1">
         <v>44477.456944444442</v>
       </c>
-      <c r="D488" s="2" t="s">
+      <c r="D488" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="2" t="s">
+      <c r="A489" t="s">
         <v>972</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B489" t="s">
         <v>5</v>
       </c>
       <c r="C489" s="1">
         <v>44470.638888888891</v>
       </c>
-      <c r="D489" s="2" t="s">
+      <c r="D489" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="2" t="s">
+      <c r="A490" t="s">
         <v>974</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="B490" t="s">
         <v>5</v>
       </c>
       <c r="C490" s="1">
         <v>44470.636805555558</v>
       </c>
-      <c r="D490" s="2" t="s">
+      <c r="D490" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="2" t="s">
+      <c r="A491" t="s">
         <v>976</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B491" t="s">
         <v>5</v>
       </c>
       <c r="C491" s="1">
         <v>44466.629166666666</v>
       </c>
-      <c r="D491" s="2" t="s">
+      <c r="D491" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="2" t="s">
+      <c r="A492" t="s">
         <v>978</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B492" t="s">
         <v>5</v>
       </c>
       <c r="C492" s="1">
         <v>44463.709722222222</v>
       </c>
-      <c r="D492" s="2" t="s">
+      <c r="D492" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="2" t="s">
+      <c r="A493" t="s">
         <v>980</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B493" t="s">
         <v>5</v>
       </c>
       <c r="C493" s="1">
         <v>44463.65347222222</v>
       </c>
-      <c r="D493" s="2" t="s">
+      <c r="D493" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="2" t="s">
+      <c r="A494" t="s">
         <v>982</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B494" t="s">
         <v>5</v>
       </c>
       <c r="C494" s="1">
         <v>44463.382638888892</v>
       </c>
-      <c r="D494" s="2" t="s">
+      <c r="D494" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="2" t="s">
+      <c r="A495" t="s">
         <v>691</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" t="s">
         <v>5</v>
       </c>
       <c r="C495" s="1">
         <v>44455.393055555556</v>
       </c>
-      <c r="D495" s="2" t="s">
+      <c r="D495" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="496" spans="1:4">
-      <c r="A496" s="2" t="s">
+      <c r="A496" t="s">
         <v>985</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B496" t="s">
         <v>5</v>
       </c>
       <c r="C496" s="1">
         <v>44447.656944444447</v>
       </c>
-      <c r="D496" s="2" t="s">
+      <c r="D496" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="497" spans="1:4">
-      <c r="A497" s="2" t="s">
+      <c r="A497" t="s">
         <v>987</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B497" t="s">
         <v>5</v>
       </c>
       <c r="C497" s="1">
         <v>44441.463888888888</v>
       </c>
-      <c r="D497" s="2" t="s">
+      <c r="D497" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="2" t="s">
+      <c r="A498" t="s">
         <v>989</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B498" t="s">
         <v>5</v>
       </c>
       <c r="C498" s="1">
         <v>44439.484027777777</v>
       </c>
-      <c r="D498" s="2" t="s">
+      <c r="D498" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="499" spans="1:4">
-      <c r="A499" s="2" t="s">
+      <c r="A499" t="s">
         <v>991</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B499" t="s">
         <v>5</v>
       </c>
       <c r="C499" s="1">
         <v>44435.418749999997</v>
       </c>
-      <c r="D499" s="2" t="s">
+      <c r="D499" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="2" t="s">
+      <c r="A500" t="s">
         <v>993</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" t="s">
         <v>5</v>
       </c>
       <c r="C500" s="1">
         <v>44434.586805555555</v>
       </c>
-      <c r="D500" s="2" t="s">
+      <c r="D500" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="501" spans="1:4">
-      <c r="A501" s="2" t="s">
+      <c r="A501" t="s">
         <v>995</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B501" t="s">
         <v>5</v>
       </c>
       <c r="C501" s="1">
         <v>44434.459027777775</v>
       </c>
-      <c r="D501" s="2" t="s">
+      <c r="D501" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="502" spans="1:4">
-      <c r="A502" s="2" t="s">
+      <c r="A502" t="s">
         <v>997</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B502" t="s">
         <v>5</v>
       </c>
       <c r="C502" s="1">
         <v>44433.597222222219</v>
       </c>
-      <c r="D502" s="2" t="s">
+      <c r="D502" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="503" spans="1:4">
-      <c r="A503" s="2" t="s">
+      <c r="A503" t="s">
         <v>999</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B503" t="s">
         <v>5</v>
       </c>
       <c r="C503" s="1">
         <v>44433.589583333334</v>
       </c>
-      <c r="D503" s="2" t="s">
+      <c r="D503" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="504" spans="1:4">
-      <c r="A504" s="2" t="s">
+      <c r="A504" t="s">
         <v>1001</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B504" t="s">
         <v>5</v>
       </c>
       <c r="C504" s="1">
         <v>44433.535416666666</v>
       </c>
-      <c r="D504" s="2" t="s">
+      <c r="D504" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="505" spans="1:4">
-      <c r="A505" s="2" t="s">
+      <c r="A505" t="s">
         <v>1003</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B505" t="s">
         <v>5</v>
       </c>
       <c r="C505" s="1">
         <v>44432.482638888891</v>
       </c>
-      <c r="D505" s="2" t="s">
+      <c r="D505" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="506" spans="1:4">
-      <c r="A506" s="2" t="s">
+      <c r="A506" t="s">
         <v>1005</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" t="s">
         <v>5</v>
       </c>
       <c r="C506" s="1">
         <v>44431.65902777778</v>
       </c>
-      <c r="D506" s="2" t="s">
+      <c r="D506" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="507" spans="1:4">
-      <c r="A507" s="2" t="s">
+      <c r="A507" t="s">
         <v>1007</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="B507" t="s">
         <v>5</v>
       </c>
       <c r="C507" s="1">
         <v>44431.568749999999</v>
       </c>
-      <c r="D507" s="2" t="s">
+      <c r="D507" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="508" spans="1:4">
-      <c r="A508" s="2" t="s">
+      <c r="A508" t="s">
         <v>1009</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B508" t="s">
         <v>5</v>
       </c>
       <c r="C508" s="1">
         <v>44431.560416666667</v>
       </c>
-      <c r="D508" s="2" t="s">
+      <c r="D508" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="509" spans="1:4">
-      <c r="A509" s="2" t="s">
+      <c r="A509" t="s">
         <v>1011</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" t="s">
         <v>5</v>
       </c>
       <c r="C509" s="1">
         <v>44426.632638888892</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="D509" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="510" spans="1:4">
-      <c r="A510" s="2" t="s">
+      <c r="A510" t="s">
         <v>1013</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B510" t="s">
         <v>5</v>
       </c>
       <c r="C510" s="1">
         <v>44426.469444444447</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="D510" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="2" t="s">
+      <c r="A511" t="s">
         <v>1015</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="B511" t="s">
         <v>5</v>
       </c>
       <c r="C511" s="1">
         <v>44420.738888888889</v>
       </c>
-      <c r="D511" s="2" t="s">
+      <c r="D511" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="512" spans="1:4">
-      <c r="A512" s="2" t="s">
+      <c r="A512" t="s">
         <v>1017</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" t="s">
         <v>5</v>
       </c>
       <c r="C512" s="1">
         <v>44417.67291666667</v>
       </c>
-      <c r="D512" s="2" t="s">
+      <c r="D512" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="513" spans="1:4">
-      <c r="A513" s="2" t="s">
+      <c r="A513" t="s">
         <v>1019</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" t="s">
         <v>5</v>
       </c>
       <c r="C513" s="1">
         <v>44417.588888888888</v>
       </c>
-      <c r="D513" s="2" t="s">
+      <c r="D513" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="514" spans="1:4">
-      <c r="A514" s="2" t="s">
+      <c r="A514" t="s">
         <v>1021</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B514" t="s">
         <v>5</v>
       </c>
       <c r="C514" s="1">
         <v>44417.495833333334</v>
       </c>
-      <c r="D514" s="2" t="s">
+      <c r="D514" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="515" spans="1:4">
-      <c r="A515" s="2" t="s">
+      <c r="A515" t="s">
         <v>1023</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B515" t="s">
         <v>5</v>
       </c>
       <c r="C515" s="1">
         <v>44417.416666666664</v>
       </c>
-      <c r="D515" s="2" t="s">
+      <c r="D515" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="516" spans="1:4">
-      <c r="A516" s="2" t="s">
+      <c r="A516" t="s">
         <v>1025</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B516" t="s">
         <v>5</v>
       </c>
       <c r="C516" s="1">
         <v>44411.734027777777</v>
       </c>
-      <c r="D516" s="2" t="s">
+      <c r="D516" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="517" spans="1:4">
-      <c r="A517" s="2" t="s">
+      <c r="A517" t="s">
         <v>1027</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" t="s">
         <v>5</v>
       </c>
       <c r="C517" s="1">
         <v>44410.725694444445</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="D517" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="518" spans="1:4">
-      <c r="A518" s="2" t="s">
+      <c r="A518" t="s">
         <v>1029</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" t="s">
         <v>5</v>
       </c>
       <c r="C518" s="1">
         <v>44410.717361111114</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="D518" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="519" spans="1:4">
-      <c r="A519" s="2" t="s">
+      <c r="A519" t="s">
         <v>1031</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B519" t="s">
         <v>5</v>
       </c>
       <c r="C519" s="1">
         <v>44410.630555555559</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="D519" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="520" spans="1:4">
-      <c r="A520" s="2" t="s">
+      <c r="A520" t="s">
         <v>1033</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B520" t="s">
         <v>5</v>
       </c>
       <c r="C520" s="1">
         <v>44410.413194444445</v>
       </c>
-      <c r="D520" s="2" t="s">
+      <c r="D520" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="521" spans="1:4">
-      <c r="A521" s="2" t="s">
+      <c r="A521" t="s">
         <v>1035</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B521" t="s">
         <v>5</v>
       </c>
       <c r="C521" s="1">
         <v>44407.436805555553</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="D521" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="2" t="s">
+      <c r="A522" t="s">
         <v>1037</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B522" t="s">
         <v>5</v>
       </c>
       <c r="C522" s="1">
         <v>44406.615972222222</v>
       </c>
-      <c r="D522" s="2" t="s">
+      <c r="D522" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="523" spans="1:4">
-      <c r="A523" s="2" t="s">
+      <c r="A523" t="s">
         <v>1039</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" t="s">
         <v>5</v>
       </c>
       <c r="C523" s="1">
         <v>44406.568055555559</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="D523" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="524" spans="1:4">
-      <c r="A524" s="2" t="s">
+      <c r="A524" t="s">
         <v>991</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B524" t="s">
         <v>5</v>
       </c>
       <c r="C524" s="1">
         <v>44405.675694444442</v>
       </c>
-      <c r="D524" s="2" t="s">
+      <c r="D524" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="2" t="s">
+      <c r="A525" t="s">
         <v>1042</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B525" t="s">
         <v>5</v>
       </c>
       <c r="C525" s="1">
         <v>44405.611805555556</v>
       </c>
-      <c r="D525" s="2" t="s">
+      <c r="D525" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="2" t="s">
+      <c r="A526" t="s">
         <v>1044</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B526" t="s">
         <v>5</v>
       </c>
       <c r="C526" s="1">
         <v>44404.636111111111</v>
       </c>
-      <c r="D526" s="2" t="s">
+      <c r="D526" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="2" t="s">
+      <c r="A527" t="s">
         <v>1046</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" t="s">
         <v>5</v>
       </c>
       <c r="C527" s="1">
         <v>44404.568749999999</v>
       </c>
-      <c r="D527" s="2" t="s">
+      <c r="D527" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="528" spans="1:4">
-      <c r="A528" s="2" t="s">
+      <c r="A528" t="s">
         <v>1048</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B528" t="s">
         <v>5</v>
       </c>
       <c r="C528" s="1">
         <v>44403.711805555555</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="D528" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="2" t="s">
+      <c r="A529" t="s">
         <v>1050</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B529" t="s">
         <v>5</v>
       </c>
       <c r="C529" s="1">
         <v>44403.652083333334</v>
       </c>
-      <c r="D529" s="2" t="s">
+      <c r="D529" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="530" spans="1:4">
-      <c r="A530" s="2" t="s">
+      <c r="A530" t="s">
         <v>1052</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B530" t="s">
         <v>5</v>
       </c>
       <c r="C530" s="1">
         <v>44403.459722222222</v>
       </c>
-      <c r="D530" s="2" t="s">
+      <c r="D530" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="531" spans="1:4">
-      <c r="A531" s="2" t="s">
+      <c r="A531" t="s">
         <v>1054</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" t="s">
         <v>5</v>
       </c>
       <c r="C531" s="1">
         <v>44403.458333333336</v>
       </c>
-      <c r="D531" s="2" t="s">
+      <c r="D531" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="532" spans="1:4">
-      <c r="A532" s="2" t="s">
+      <c r="A532" t="s">
         <v>1056</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" t="s">
         <v>5</v>
       </c>
       <c r="C532" s="1">
         <v>44400.74722222222</v>
       </c>
-      <c r="D532" s="2" t="s">
+      <c r="D532" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="2" t="s">
+      <c r="A533" t="s">
         <v>1058</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" t="s">
         <v>5</v>
       </c>
       <c r="C533" s="1">
         <v>44400.679166666669</v>
       </c>
-      <c r="D533" s="2" t="s">
+      <c r="D533" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="534" spans="1:4">
-      <c r="A534" s="2" t="s">
+      <c r="A534" t="s">
         <v>1060</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" t="s">
         <v>5</v>
       </c>
       <c r="C534" s="1">
         <v>44398.727083333331</v>
       </c>
-      <c r="D534" s="2" t="s">
+      <c r="D534" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="535" spans="1:4">
-      <c r="A535" s="2" t="s">
+      <c r="A535" t="s">
         <v>1062</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" t="s">
         <v>5</v>
       </c>
       <c r="C535" s="1">
         <v>44397.488194444442</v>
       </c>
-      <c r="D535" s="2" t="s">
+      <c r="D535" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="536" spans="1:4">
-      <c r="A536" s="2" t="s">
+      <c r="A536" t="s">
         <v>1064</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" t="s">
         <v>5</v>
       </c>
       <c r="C536" s="1">
         <v>44393.477083333331</v>
       </c>
-      <c r="D536" s="2" t="s">
+      <c r="D536" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="537" spans="1:4">
-      <c r="A537" s="2" t="s">
+      <c r="A537" t="s">
         <v>1066</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" t="s">
         <v>5</v>
       </c>
       <c r="C537" s="1">
         <v>44392.456944444442</v>
       </c>
-      <c r="D537" s="2" t="s">
+      <c r="D537" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="538" spans="1:4">
-      <c r="A538" s="2" t="s">
+      <c r="A538" t="s">
         <v>1068</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" t="s">
         <v>5</v>
       </c>
       <c r="C538" s="1">
         <v>44391.456944444442</v>
       </c>
-      <c r="D538" s="2" t="s">
+      <c r="D538" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="539" spans="1:4">
-      <c r="A539" s="2" t="s">
+      <c r="A539" t="s">
         <v>1070</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B539" t="s">
         <v>5</v>
       </c>
       <c r="C539" s="1">
         <v>44390.656944444447</v>
       </c>
-      <c r="D539" s="2" t="s">
+      <c r="D539" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="540" spans="1:4">
-      <c r="A540" s="2" t="s">
+      <c r="A540" t="s">
         <v>1072</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" t="s">
         <v>5</v>
       </c>
       <c r="C540" s="1">
         <v>44390.613194444442</v>
       </c>
-      <c r="D540" s="2" t="s">
+      <c r="D540" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="541" spans="1:4">
-      <c r="A541" s="2" t="s">
+      <c r="A541" t="s">
         <v>1074</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" t="s">
         <v>5</v>
       </c>
       <c r="C541" s="1">
         <v>44385.537499999999</v>
       </c>
-      <c r="D541" s="2" t="s">
+      <c r="D541" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="542" spans="1:4">
-      <c r="A542" s="2" t="s">
+      <c r="A542" t="s">
         <v>1076</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" t="s">
         <v>5</v>
       </c>
       <c r="C542" s="1">
         <v>44385.390972222223</v>
       </c>
-      <c r="D542" s="2" t="s">
+      <c r="D542" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="2" t="s">
+      <c r="A543" t="s">
         <v>1078</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B543" t="s">
         <v>5</v>
       </c>
       <c r="C543" s="1">
         <v>44379.745138888888</v>
       </c>
-      <c r="D543" s="2" t="s">
+      <c r="D543" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="2" t="s">
+      <c r="A544" t="s">
         <v>1080</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B544" t="s">
         <v>5</v>
       </c>
       <c r="C544" s="1">
         <v>44378.416666666664</v>
       </c>
-      <c r="D544" s="2" t="s">
+      <c r="D544" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="545" spans="1:4">
-      <c r="A545" s="2" t="s">
+      <c r="A545" t="s">
         <v>1082</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" t="s">
         <v>5</v>
       </c>
       <c r="C545" s="1">
         <v>44371.408333333333</v>
       </c>
-      <c r="D545" s="2" t="s">
+      <c r="D545" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="546" spans="1:4">
-      <c r="A546" s="2" t="s">
+      <c r="A546" t="s">
         <v>1084</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" t="s">
         <v>5</v>
       </c>
       <c r="C546" s="1">
         <v>44361.467361111114</v>
       </c>
-      <c r="D546" s="2" t="s">
+      <c r="D546" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="547" spans="1:4">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
-      <c r="C547" s="1"/>
-      <c r="D547" s="2"/>
-    </row>
-    <row r="548" spans="1:4">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
-      <c r="C548" s="1"/>
-      <c r="D548" s="2"/>
-    </row>
-    <row r="549" spans="1:4">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
-      <c r="C549" s="1"/>
-      <c r="D549" s="2"/>
-    </row>
-    <row r="550" spans="1:4">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
-      <c r="C550" s="1"/>
-      <c r="D550" s="2"/>
-    </row>
-    <row r="551" spans="1:4">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-      <c r="C551" s="1"/>
-      <c r="D551" s="2"/>
-    </row>
-    <row r="552" spans="1:4">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
-      <c r="C552" s="1"/>
-      <c r="D552" s="2"/>
-    </row>
-    <row r="553" spans="1:4">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
-      <c r="C553" s="1"/>
-      <c r="D553" s="2"/>
-    </row>
-    <row r="554" spans="1:4">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
-      <c r="C554" s="1"/>
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555" spans="1:4">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
-      <c r="C555" s="1"/>
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556" spans="1:4">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-      <c r="C556" s="1"/>
-      <c r="D556" s="2"/>
-    </row>
-    <row r="557" spans="1:4">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-      <c r="C557" s="1"/>
-      <c r="D557" s="2"/>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
-      <c r="C558" s="1"/>
-      <c r="D558" s="2"/>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
-      <c r="C559" s="1"/>
-      <c r="D559" s="2"/>
-    </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
-      <c r="C560" s="1"/>
-      <c r="D560" s="2"/>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
-      <c r="C561" s="1"/>
-      <c r="D561" s="2"/>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
-      <c r="C562" s="1"/>
-      <c r="D562" s="2"/>
-    </row>
-    <row r="563" spans="1:4">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
-      <c r="C563" s="1"/>
-      <c r="D563" s="2"/>
-    </row>
-    <row r="564" spans="1:4">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
-      <c r="C564" s="1"/>
-      <c r="D564" s="2"/>
-    </row>
-    <row r="565" spans="1:4">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
-      <c r="C565" s="1"/>
-      <c r="D565" s="2"/>
-    </row>
-    <row r="566" spans="1:4">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
-      <c r="C566" s="1"/>
-      <c r="D566" s="2"/>
-    </row>
-    <row r="567" spans="1:4">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
-      <c r="C567" s="1"/>
-      <c r="D567" s="2"/>
-    </row>
-    <row r="568" spans="1:4">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
-      <c r="C568" s="1"/>
-      <c r="D568" s="2"/>
-    </row>
-    <row r="569" spans="1:4">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
-      <c r="C569" s="1"/>
-      <c r="D569" s="2"/>
-    </row>
-    <row r="570" spans="1:4">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
-      <c r="C570" s="1"/>
-      <c r="D570" s="2"/>
-    </row>
-    <row r="571" spans="1:4">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
-      <c r="C571" s="1"/>
-      <c r="D571" s="2"/>
-    </row>
-    <row r="572" spans="1:4">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
-      <c r="C572" s="1"/>
-      <c r="D572" s="2"/>
-    </row>
-    <row r="573" spans="1:4">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
-      <c r="C573" s="1"/>
-      <c r="D573" s="2"/>
-    </row>
-    <row r="574" spans="1:4">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
-      <c r="C574" s="1"/>
-      <c r="D574" s="2"/>
-    </row>
-    <row r="575" spans="1:4">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
-      <c r="C575" s="1"/>
-      <c r="D575" s="2"/>
-    </row>
-    <row r="576" spans="1:4">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
-      <c r="C576" s="1"/>
-      <c r="D576" s="2"/>
-    </row>
-    <row r="577" spans="1:4">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
-      <c r="C577" s="1"/>
-      <c r="D577" s="2"/>
-    </row>
-    <row r="578" spans="1:4">
-      <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
-      <c r="C578" s="1"/>
-      <c r="D578" s="2"/>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
-      <c r="C579" s="1"/>
-      <c r="D579" s="2"/>
-    </row>
-    <row r="580" spans="1:4">
-      <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
-      <c r="C580" s="1"/>
-      <c r="D580" s="2"/>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
-      <c r="C581" s="1"/>
-      <c r="D581" s="2"/>
-    </row>
-    <row r="582" spans="1:4">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
-      <c r="C582" s="1"/>
-      <c r="D582" s="2"/>
-    </row>
-    <row r="583" spans="1:4">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
-      <c r="C583" s="1"/>
-      <c r="D583" s="2"/>
-    </row>
-    <row r="584" spans="1:4">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
-      <c r="C584" s="1"/>
-      <c r="D584" s="2"/>
-    </row>
-    <row r="585" spans="1:4">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
-      <c r="C585" s="1"/>
-      <c r="D585" s="2"/>
-    </row>
-    <row r="586" spans="1:4">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
-      <c r="C586" s="1"/>
-      <c r="D586" s="2"/>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
-      <c r="C587" s="1"/>
-      <c r="D587" s="2"/>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
-      <c r="C588" s="1"/>
-      <c r="D588" s="2"/>
-    </row>
-    <row r="589" spans="1:4">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
-      <c r="C589" s="1"/>
-      <c r="D589" s="2"/>
-    </row>
-    <row r="590" spans="1:4">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
-      <c r="C590" s="1"/>
-      <c r="D590" s="2"/>
-    </row>
-    <row r="591" spans="1:4">
-      <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
-      <c r="C591" s="1"/>
-      <c r="D591" s="2"/>
-    </row>
-    <row r="592" spans="1:4">
-      <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
-      <c r="C592" s="1"/>
-      <c r="D592" s="2"/>
-    </row>
-    <row r="593" spans="1:4">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
-      <c r="C593" s="1"/>
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594" spans="1:4">
-      <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
-      <c r="C594" s="1"/>
-      <c r="D594" s="2"/>
-    </row>
-    <row r="595" spans="1:4">
-      <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
-      <c r="C595" s="1"/>
-      <c r="D595" s="2"/>
-    </row>
-    <row r="596" spans="1:4">
-      <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
-      <c r="C596" s="1"/>
-      <c r="D596" s="2"/>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
-      <c r="C597" s="1"/>
-      <c r="D597" s="2"/>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
-      <c r="C598" s="1"/>
-      <c r="D598" s="2"/>
-    </row>
-    <row r="599" spans="1:4">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
-      <c r="C599" s="1"/>
-      <c r="D599" s="2"/>
-    </row>
-    <row r="600" spans="1:4">
-      <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
-      <c r="C600" s="1"/>
-      <c r="D600" s="2"/>
-    </row>
-    <row r="601" spans="1:4">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
-      <c r="C601" s="1"/>
-      <c r="D601" s="2"/>
-    </row>
-    <row r="602" spans="1:4">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
-      <c r="C602" s="1"/>
-      <c r="D602" s="2"/>
-    </row>
-    <row r="603" spans="1:4">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
-      <c r="C603" s="1"/>
-      <c r="D603" s="2"/>
-    </row>
-    <row r="604" spans="1:4">
-      <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
-      <c r="C604" s="1"/>
-      <c r="D604" s="2"/>
-    </row>
-    <row r="605" spans="1:4">
-      <c r="A605" s="2"/>
-      <c r="B605" s="2"/>
-      <c r="C605" s="1"/>
-      <c r="D605" s="2"/>
-    </row>
-    <row r="606" spans="1:4">
-      <c r="A606" s="2"/>
-      <c r="B606" s="2"/>
-      <c r="C606" s="1"/>
-      <c r="D606" s="2"/>
-    </row>
-    <row r="607" spans="1:4">
-      <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
-      <c r="C607" s="1"/>
-      <c r="D607" s="2"/>
-    </row>
-    <row r="608" spans="1:4">
-      <c r="A608" s="2"/>
-      <c r="B608" s="2"/>
-      <c r="C608" s="1"/>
-      <c r="D608" s="2"/>
-    </row>
-    <row r="609" spans="1:4">
-      <c r="A609" s="2"/>
-      <c r="B609" s="2"/>
-      <c r="C609" s="1"/>
-      <c r="D609" s="2"/>
-    </row>
-    <row r="610" spans="1:4">
-      <c r="A610" s="2"/>
-      <c r="B610" s="2"/>
-      <c r="C610" s="1"/>
-      <c r="D610" s="2"/>
-    </row>
-    <row r="611" spans="1:4">
-      <c r="A611" s="2"/>
-      <c r="B611" s="2"/>
-      <c r="C611" s="1"/>
-      <c r="D611" s="2"/>
-    </row>
-    <row r="612" spans="1:4">
-      <c r="A612" s="2"/>
-      <c r="B612" s="2"/>
-      <c r="C612" s="1"/>
-      <c r="D612" s="2"/>
-    </row>
-    <row r="613" spans="1:4">
-      <c r="A613" s="2"/>
-      <c r="B613" s="2"/>
-      <c r="C613" s="1"/>
-      <c r="D613" s="2"/>
-    </row>
-    <row r="614" spans="1:4">
-      <c r="A614" s="2"/>
-      <c r="B614" s="2"/>
-      <c r="C614" s="1"/>
-      <c r="D614" s="2"/>
-    </row>
-    <row r="615" spans="1:4">
-      <c r="A615" s="2"/>
-      <c r="B615" s="2"/>
-      <c r="C615" s="1"/>
-      <c r="D615" s="2"/>
-    </row>
-    <row r="616" spans="1:4">
-      <c r="A616" s="2"/>
-      <c r="B616" s="2"/>
-      <c r="C616" s="1"/>
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="1:4">
-      <c r="A617" s="2"/>
-      <c r="B617" s="2"/>
-      <c r="C617" s="1"/>
-      <c r="D617" s="2"/>
-    </row>
-    <row r="618" spans="1:4">
-      <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
-      <c r="C618" s="1"/>
-      <c r="D618" s="2"/>
-    </row>
-    <row r="619" spans="1:4">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
-      <c r="C619" s="1"/>
-      <c r="D619" s="2"/>
-    </row>
-    <row r="620" spans="1:4">
-      <c r="A620" s="2"/>
-      <c r="B620" s="2"/>
-      <c r="C620" s="1"/>
-      <c r="D620" s="2"/>
-    </row>
-    <row r="621" spans="1:4">
-      <c r="A621" s="2"/>
-      <c r="B621" s="2"/>
-      <c r="C621" s="1"/>
-      <c r="D621" s="2"/>
-    </row>
-    <row r="622" spans="1:4">
-      <c r="A622" s="2"/>
-      <c r="B622" s="2"/>
-      <c r="C622" s="1"/>
-      <c r="D622" s="2"/>
-    </row>
-    <row r="623" spans="1:4">
-      <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
-      <c r="C623" s="1"/>
-      <c r="D623" s="2"/>
-    </row>
-    <row r="624" spans="1:4">
-      <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
-      <c r="C624" s="1"/>
-      <c r="D624" s="2"/>
-    </row>
-    <row r="625" spans="1:4">
-      <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
-      <c r="C625" s="1"/>
-      <c r="D625" s="2"/>
-    </row>
-    <row r="626" spans="1:4">
-      <c r="A626" s="2"/>
-      <c r="B626" s="2"/>
-      <c r="C626" s="1"/>
-      <c r="D626" s="2"/>
-    </row>
-    <row r="627" spans="1:4">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
-      <c r="C627" s="1"/>
-      <c r="D627" s="2"/>
-    </row>
-    <row r="628" spans="1:4">
-      <c r="A628" s="2"/>
-      <c r="B628" s="2"/>
-      <c r="C628" s="1"/>
-      <c r="D628" s="2"/>
-    </row>
-    <row r="629" spans="1:4">
-      <c r="A629" s="2"/>
-      <c r="B629" s="2"/>
-      <c r="C629" s="1"/>
-      <c r="D629" s="2"/>
-    </row>
-    <row r="630" spans="1:4">
-      <c r="A630" s="2"/>
-      <c r="B630" s="2"/>
-      <c r="C630" s="1"/>
-      <c r="D630" s="2"/>
-    </row>
-    <row r="631" spans="1:4">
-      <c r="A631" s="2"/>
-      <c r="B631" s="2"/>
-      <c r="C631" s="1"/>
-      <c r="D631" s="2"/>
-    </row>
-    <row r="632" spans="1:4">
-      <c r="A632" s="2"/>
-      <c r="B632" s="2"/>
-      <c r="C632" s="1"/>
-      <c r="D632" s="2"/>
-    </row>
-    <row r="633" spans="1:4">
-      <c r="A633" s="2"/>
-      <c r="B633" s="2"/>
-      <c r="C633" s="1"/>
-      <c r="D633" s="2"/>
-    </row>
-    <row r="634" spans="1:4">
-      <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
-      <c r="C634" s="1"/>
-      <c r="D634" s="2"/>
-    </row>
-    <row r="635" spans="1:4">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
-      <c r="C635" s="1"/>
-      <c r="D635" s="2"/>
-    </row>
-    <row r="636" spans="1:4">
-      <c r="A636" s="2"/>
-      <c r="B636" s="2"/>
-      <c r="C636" s="1"/>
-      <c r="D636" s="2"/>
-    </row>
-    <row r="637" spans="1:4">
-      <c r="A637" s="2"/>
-      <c r="B637" s="2"/>
-      <c r="C637" s="1"/>
-      <c r="D637" s="2"/>
-    </row>
-    <row r="638" spans="1:4">
-      <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
-      <c r="C638" s="1"/>
-      <c r="D638" s="2"/>
-    </row>
-    <row r="639" spans="1:4">
-      <c r="A639" s="2"/>
-      <c r="B639" s="2"/>
-      <c r="C639" s="1"/>
-      <c r="D639" s="2"/>
-    </row>
-    <row r="640" spans="1:4">
-      <c r="A640" s="2"/>
-      <c r="B640" s="2"/>
-      <c r="C640" s="1"/>
-      <c r="D640" s="2"/>
-    </row>
-    <row r="641" spans="1:4">
-      <c r="A641" s="2"/>
-      <c r="B641" s="2"/>
-      <c r="C641" s="1"/>
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642" spans="1:4">
-      <c r="A642" s="2"/>
-      <c r="B642" s="2"/>
-      <c r="C642" s="1"/>
-      <c r="D642" s="2"/>
-    </row>
-    <row r="643" spans="1:4">
-      <c r="A643" s="2"/>
-      <c r="B643" s="2"/>
-      <c r="C643" s="1"/>
-      <c r="D643" s="2"/>
-    </row>
-    <row r="644" spans="1:4">
-      <c r="A644" s="2"/>
-      <c r="B644" s="2"/>
-      <c r="C644" s="1"/>
-      <c r="D644" s="2"/>
-    </row>
-    <row r="645" spans="1:4">
-      <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
-      <c r="C645" s="1"/>
-      <c r="D645" s="2"/>
-    </row>
-    <row r="646" spans="1:4">
-      <c r="A646" s="2"/>
-      <c r="B646" s="2"/>
-      <c r="C646" s="1"/>
-      <c r="D646" s="2"/>
-    </row>
-    <row r="647" spans="1:4">
-      <c r="A647" s="2"/>
-      <c r="B647" s="2"/>
-      <c r="C647" s="1"/>
-      <c r="D647" s="2"/>
-    </row>
-    <row r="648" spans="1:4">
-      <c r="A648" s="2"/>
-      <c r="B648" s="2"/>
-      <c r="C648" s="1"/>
-      <c r="D648" s="2"/>
-    </row>
-    <row r="649" spans="1:4">
-      <c r="A649" s="2"/>
-      <c r="B649" s="2"/>
-      <c r="C649" s="1"/>
-      <c r="D649" s="2"/>
-    </row>
-    <row r="650" spans="1:4">
-      <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
-      <c r="C650" s="1"/>
-      <c r="D650" s="2"/>
-    </row>
-    <row r="651" spans="1:4">
-      <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
-      <c r="C651" s="1"/>
-      <c r="D651" s="2"/>
-    </row>
-    <row r="652" spans="1:4">
-      <c r="A652" s="2"/>
-      <c r="B652" s="2"/>
-      <c r="C652" s="1"/>
-      <c r="D652" s="2"/>
-    </row>
-    <row r="653" spans="1:4">
-      <c r="A653" s="2"/>
-      <c r="B653" s="2"/>
-      <c r="C653" s="1"/>
-      <c r="D653" s="2"/>
-    </row>
-    <row r="654" spans="1:4">
-      <c r="A654" s="2"/>
-      <c r="B654" s="2"/>
-      <c r="C654" s="1"/>
-      <c r="D654" s="2"/>
-    </row>
-    <row r="655" spans="1:4">
-      <c r="A655" s="2"/>
-      <c r="B655" s="2"/>
-      <c r="C655" s="1"/>
-      <c r="D655" s="2"/>
-    </row>
-    <row r="656" spans="1:4">
-      <c r="A656" s="2"/>
-      <c r="B656" s="2"/>
-      <c r="C656" s="1"/>
-      <c r="D656" s="2"/>
-    </row>
-    <row r="657" spans="1:4">
-      <c r="A657" s="2"/>
-      <c r="B657" s="2"/>
-      <c r="C657" s="1"/>
-      <c r="D657" s="2"/>
-    </row>
-    <row r="658" spans="1:4">
-      <c r="A658" s="2"/>
-      <c r="B658" s="2"/>
-      <c r="C658" s="1"/>
-      <c r="D658" s="2"/>
-    </row>
-    <row r="659" spans="1:4">
-      <c r="A659" s="2"/>
-      <c r="B659" s="2"/>
-      <c r="C659" s="1"/>
-      <c r="D659" s="2"/>
-    </row>
-    <row r="660" spans="1:4">
-      <c r="A660" s="2"/>
-      <c r="B660" s="2"/>
-      <c r="C660" s="1"/>
-      <c r="D660" s="2"/>
-    </row>
-    <row r="661" spans="1:4">
-      <c r="A661" s="2"/>
-      <c r="B661" s="2"/>
-      <c r="C661" s="1"/>
-      <c r="D661" s="2"/>
-    </row>
-    <row r="662" spans="1:4">
-      <c r="A662" s="2"/>
-      <c r="B662" s="2"/>
-      <c r="C662" s="1"/>
-      <c r="D662" s="2"/>
-    </row>
-    <row r="663" spans="1:4">
-      <c r="A663" s="2"/>
-      <c r="B663" s="2"/>
-      <c r="C663" s="1"/>
-      <c r="D663" s="2"/>
-    </row>
-    <row r="664" spans="1:4">
-      <c r="A664" s="2"/>
-      <c r="B664" s="2"/>
-      <c r="C664" s="1"/>
-      <c r="D664" s="2"/>
-    </row>
-    <row r="665" spans="1:4">
-      <c r="A665" s="2"/>
-      <c r="B665" s="2"/>
-      <c r="C665" s="1"/>
-      <c r="D665" s="2"/>
-    </row>
-    <row r="666" spans="1:4">
-      <c r="A666" s="2"/>
-      <c r="B666" s="2"/>
-      <c r="C666" s="1"/>
-      <c r="D666" s="2"/>
-    </row>
-    <row r="667" spans="1:4">
-      <c r="A667" s="2"/>
-      <c r="B667" s="2"/>
-      <c r="C667" s="1"/>
-      <c r="D667" s="2"/>
-    </row>
-    <row r="668" spans="1:4">
-      <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
-      <c r="C668" s="1"/>
-      <c r="D668" s="2"/>
-    </row>
-    <row r="669" spans="1:4">
-      <c r="A669" s="2"/>
-      <c r="B669" s="2"/>
-      <c r="C669" s="1"/>
-      <c r="D669" s="2"/>
-    </row>
-    <row r="670" spans="1:4">
-      <c r="A670" s="2"/>
-      <c r="B670" s="2"/>
-      <c r="C670" s="1"/>
-      <c r="D670" s="2"/>
-    </row>
-    <row r="671" spans="1:4">
-      <c r="A671" s="2"/>
-      <c r="B671" s="2"/>
-      <c r="C671" s="1"/>
-      <c r="D671" s="2"/>
-    </row>
-    <row r="672" spans="1:4">
-      <c r="A672" s="2"/>
-      <c r="B672" s="2"/>
-      <c r="C672" s="1"/>
-      <c r="D672" s="2"/>
-    </row>
-    <row r="673" spans="1:4">
-      <c r="A673" s="2"/>
-      <c r="B673" s="2"/>
-      <c r="C673" s="1"/>
-      <c r="D673" s="2"/>
-    </row>
-    <row r="674" spans="1:4">
-      <c r="A674" s="2"/>
-      <c r="B674" s="2"/>
-      <c r="C674" s="1"/>
-      <c r="D674" s="2"/>
-    </row>
-    <row r="675" spans="1:4">
-      <c r="A675" s="2"/>
-      <c r="B675" s="2"/>
-      <c r="C675" s="1"/>
-      <c r="D675" s="2"/>
-    </row>
-    <row r="676" spans="1:4">
-      <c r="A676" s="2"/>
-      <c r="B676" s="2"/>
-      <c r="C676" s="1"/>
-      <c r="D676" s="2"/>
-    </row>
-    <row r="677" spans="1:4">
-      <c r="A677" s="2"/>
-      <c r="B677" s="2"/>
-      <c r="C677" s="1"/>
-      <c r="D677" s="2"/>
-    </row>
-    <row r="678" spans="1:4">
-      <c r="A678" s="2"/>
-      <c r="B678" s="2"/>
-      <c r="C678" s="1"/>
-      <c r="D678" s="2"/>
-    </row>
-    <row r="679" spans="1:4">
-      <c r="A679" s="2"/>
-      <c r="B679" s="2"/>
-      <c r="C679" s="1"/>
-      <c r="D679" s="2"/>
-    </row>
-    <row r="680" spans="1:4">
-      <c r="A680" s="2"/>
-      <c r="B680" s="2"/>
-      <c r="C680" s="1"/>
-      <c r="D680" s="2"/>
-    </row>
-    <row r="681" spans="1:4">
-      <c r="A681" s="2"/>
-      <c r="B681" s="2"/>
-      <c r="C681" s="1"/>
-      <c r="D681" s="2"/>
-    </row>
-    <row r="682" spans="1:4">
-      <c r="A682" s="2"/>
-      <c r="B682" s="2"/>
-      <c r="C682" s="1"/>
-      <c r="D682" s="2"/>
-    </row>
-    <row r="683" spans="1:4">
-      <c r="A683" s="2"/>
-      <c r="B683" s="2"/>
-      <c r="C683" s="1"/>
-      <c r="D683" s="2"/>
-    </row>
-    <row r="684" spans="1:4">
-      <c r="A684" s="2"/>
-      <c r="B684" s="2"/>
-      <c r="C684" s="1"/>
-      <c r="D684" s="2"/>
-    </row>
-    <row r="685" spans="1:4">
-      <c r="A685" s="2"/>
-      <c r="B685" s="2"/>
-      <c r="C685" s="1"/>
-      <c r="D685" s="2"/>
-    </row>
-    <row r="686" spans="1:4">
-      <c r="A686" s="2"/>
-      <c r="B686" s="2"/>
-      <c r="C686" s="1"/>
-      <c r="D686" s="2"/>
-    </row>
-    <row r="687" spans="1:4">
-      <c r="A687" s="2"/>
-      <c r="B687" s="2"/>
-      <c r="C687" s="1"/>
-      <c r="D687" s="2"/>
-    </row>
-    <row r="688" spans="1:4">
-      <c r="A688" s="2"/>
-      <c r="B688" s="2"/>
-      <c r="C688" s="1"/>
-      <c r="D688" s="2"/>
-    </row>
-    <row r="689" spans="1:4">
-      <c r="A689" s="2"/>
-      <c r="B689" s="2"/>
-      <c r="C689" s="1"/>
-      <c r="D689" s="2"/>
-    </row>
-    <row r="690" spans="1:4">
-      <c r="A690" s="2"/>
-      <c r="B690" s="2"/>
-      <c r="C690" s="1"/>
-      <c r="D690" s="2"/>
-    </row>
-    <row r="691" spans="1:4">
-      <c r="A691" s="2"/>
-      <c r="B691" s="2"/>
-      <c r="C691" s="1"/>
-      <c r="D691" s="2"/>
-    </row>
-    <row r="692" spans="1:4">
-      <c r="A692" s="2"/>
-      <c r="B692" s="2"/>
-      <c r="C692" s="1"/>
-      <c r="D692" s="2"/>
-    </row>
-    <row r="693" spans="1:4">
-      <c r="A693" s="2"/>
-      <c r="B693" s="2"/>
-      <c r="C693" s="1"/>
-      <c r="D693" s="2"/>
-    </row>
-    <row r="694" spans="1:4">
-      <c r="A694" s="2"/>
-      <c r="B694" s="2"/>
-      <c r="C694" s="1"/>
-      <c r="D694" s="2"/>
-    </row>
-    <row r="695" spans="1:4">
-      <c r="A695" s="2"/>
-      <c r="B695" s="2"/>
-      <c r="C695" s="1"/>
-      <c r="D695" s="2"/>
-    </row>
-    <row r="696" spans="1:4">
-      <c r="A696" s="2"/>
-      <c r="B696" s="2"/>
-      <c r="C696" s="1"/>
-      <c r="D696" s="2"/>
-    </row>
-    <row r="697" spans="1:4">
-      <c r="A697" s="2"/>
-      <c r="B697" s="2"/>
-      <c r="C697" s="1"/>
-      <c r="D697" s="2"/>
-    </row>
-    <row r="698" spans="1:4">
-      <c r="A698" s="2"/>
-      <c r="B698" s="2"/>
-      <c r="C698" s="1"/>
-      <c r="D698" s="2"/>
-    </row>
-    <row r="699" spans="1:4">
-      <c r="A699" s="2"/>
-      <c r="B699" s="2"/>
-      <c r="C699" s="1"/>
-      <c r="D699" s="2"/>
-    </row>
-    <row r="700" spans="1:4">
-      <c r="A700" s="2"/>
-      <c r="B700" s="2"/>
-      <c r="C700" s="1"/>
-      <c r="D700" s="2"/>
-    </row>
-    <row r="701" spans="1:4">
-      <c r="A701" s="2"/>
-      <c r="B701" s="2"/>
-      <c r="C701" s="1"/>
-      <c r="D701" s="2"/>
-    </row>
-    <row r="702" spans="1:4">
-      <c r="A702" s="2"/>
-      <c r="B702" s="2"/>
-      <c r="C702" s="1"/>
-      <c r="D702" s="2"/>
-    </row>
-    <row r="703" spans="1:4">
-      <c r="A703" s="2"/>
-      <c r="B703" s="2"/>
-      <c r="C703" s="1"/>
-      <c r="D703" s="2"/>
-    </row>
-    <row r="704" spans="1:4">
-      <c r="A704" s="2"/>
-      <c r="B704" s="2"/>
-      <c r="C704" s="1"/>
-      <c r="D704" s="2"/>
-    </row>
-    <row r="705" spans="1:4">
-      <c r="A705" s="2"/>
-      <c r="B705" s="2"/>
-      <c r="C705" s="1"/>
-      <c r="D705" s="2"/>
-    </row>
-    <row r="706" spans="1:4">
-      <c r="A706" s="2"/>
-      <c r="B706" s="2"/>
-      <c r="C706" s="1"/>
-      <c r="D706" s="2"/>
-    </row>
-    <row r="707" spans="1:4">
-      <c r="A707" s="2"/>
-      <c r="B707" s="2"/>
-      <c r="C707" s="1"/>
-      <c r="D707" s="2"/>
-    </row>
-    <row r="708" spans="1:4">
-      <c r="A708" s="2"/>
-      <c r="B708" s="2"/>
-      <c r="C708" s="1"/>
-      <c r="D708" s="2"/>
-    </row>
-    <row r="709" spans="1:4">
-      <c r="A709" s="2"/>
-      <c r="B709" s="2"/>
-      <c r="C709" s="1"/>
-      <c r="D709" s="2"/>
-    </row>
-    <row r="710" spans="1:4">
-      <c r="A710" s="2"/>
-      <c r="B710" s="2"/>
-      <c r="C710" s="1"/>
-      <c r="D710" s="2"/>
-    </row>
-    <row r="711" spans="1:4">
-      <c r="A711" s="2"/>
-      <c r="B711" s="2"/>
-      <c r="C711" s="1"/>
-      <c r="D711" s="2"/>
-    </row>
-    <row r="712" spans="1:4">
-      <c r="A712" s="2"/>
-      <c r="B712" s="2"/>
-      <c r="C712" s="1"/>
-      <c r="D712" s="2"/>
-    </row>
-    <row r="713" spans="1:4">
-      <c r="A713" s="2"/>
-      <c r="B713" s="2"/>
-      <c r="C713" s="1"/>
-      <c r="D713" s="2"/>
-    </row>
-    <row r="714" spans="1:4">
-      <c r="A714" s="2"/>
-      <c r="B714" s="2"/>
-      <c r="C714" s="1"/>
-      <c r="D714" s="2"/>
-    </row>
-    <row r="715" spans="1:4">
-      <c r="A715" s="2"/>
-      <c r="B715" s="2"/>
-      <c r="C715" s="1"/>
-      <c r="D715" s="2"/>
-    </row>
-    <row r="716" spans="1:4">
-      <c r="A716" s="2"/>
-      <c r="B716" s="2"/>
-      <c r="C716" s="1"/>
-      <c r="D716" s="2"/>
-    </row>
-    <row r="717" spans="1:4">
-      <c r="A717" s="2"/>
-      <c r="B717" s="2"/>
-      <c r="C717" s="1"/>
-      <c r="D717" s="2"/>
-    </row>
-    <row r="718" spans="1:4">
-      <c r="A718" s="2"/>
-      <c r="B718" s="2"/>
-      <c r="C718" s="1"/>
-      <c r="D718" s="2"/>
-    </row>
-    <row r="719" spans="1:4">
-      <c r="A719" s="2"/>
-      <c r="B719" s="2"/>
-      <c r="C719" s="1"/>
-      <c r="D719" s="2"/>
-    </row>
-    <row r="720" spans="1:4">
-      <c r="A720" s="2"/>
-      <c r="B720" s="2"/>
-      <c r="C720" s="1"/>
-      <c r="D720" s="2"/>
-    </row>
-    <row r="721" spans="1:4">
-      <c r="A721" s="2"/>
-      <c r="B721" s="2"/>
-      <c r="C721" s="1"/>
-      <c r="D721" s="2"/>
-    </row>
-    <row r="722" spans="1:4">
-      <c r="A722" s="2"/>
-      <c r="B722" s="2"/>
-      <c r="C722" s="1"/>
-      <c r="D722" s="2"/>
-    </row>
-    <row r="723" spans="1:4">
-      <c r="A723" s="2"/>
-      <c r="B723" s="2"/>
-      <c r="C723" s="1"/>
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724" spans="1:4">
-      <c r="A724" s="2"/>
-      <c r="B724" s="2"/>
-      <c r="C724" s="1"/>
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725" spans="1:4">
-      <c r="A725" s="2"/>
-      <c r="B725" s="2"/>
-      <c r="C725" s="1"/>
-      <c r="D725" s="2"/>
-    </row>
-    <row r="726" spans="1:4">
-      <c r="A726" s="2"/>
-      <c r="B726" s="2"/>
-      <c r="C726" s="1"/>
-      <c r="D726" s="2"/>
-    </row>
-    <row r="727" spans="1:4">
-      <c r="A727" s="2"/>
-      <c r="B727" s="2"/>
-      <c r="C727" s="1"/>
-      <c r="D727" s="2"/>
-    </row>
-    <row r="728" spans="1:4">
-      <c r="A728" s="2"/>
-      <c r="B728" s="2"/>
-      <c r="C728" s="1"/>
-      <c r="D728" s="2"/>
-    </row>
-    <row r="729" spans="1:4">
-      <c r="A729" s="2"/>
-      <c r="B729" s="2"/>
-      <c r="C729" s="1"/>
-      <c r="D729" s="2"/>
-    </row>
-    <row r="730" spans="1:4">
-      <c r="A730" s="2"/>
-      <c r="B730" s="2"/>
-      <c r="C730" s="1"/>
-      <c r="D730" s="2"/>
-    </row>
-    <row r="731" spans="1:4">
-      <c r="A731" s="2"/>
-      <c r="B731" s="2"/>
-      <c r="C731" s="1"/>
-      <c r="D731" s="2"/>
-    </row>
-    <row r="732" spans="1:4">
-      <c r="A732" s="2"/>
-      <c r="B732" s="2"/>
-      <c r="C732" s="1"/>
-      <c r="D732" s="2"/>
-    </row>
-    <row r="733" spans="1:4">
-      <c r="A733" s="2"/>
-      <c r="B733" s="2"/>
-      <c r="C733" s="1"/>
-      <c r="D733" s="2"/>
-    </row>
-    <row r="734" spans="1:4">
-      <c r="A734" s="2"/>
-      <c r="B734" s="2"/>
-      <c r="C734" s="1"/>
-      <c r="D734" s="2"/>
-    </row>
-    <row r="735" spans="1:4">
-      <c r="A735" s="2"/>
-      <c r="B735" s="2"/>
-      <c r="C735" s="1"/>
-      <c r="D735" s="2"/>
-    </row>
-    <row r="736" spans="1:4">
-      <c r="A736" s="2"/>
-      <c r="B736" s="2"/>
-      <c r="C736" s="1"/>
-      <c r="D736" s="2"/>
-    </row>
-    <row r="737" spans="1:4">
-      <c r="A737" s="2"/>
-      <c r="B737" s="2"/>
-      <c r="C737" s="1"/>
-      <c r="D737" s="2"/>
-    </row>
-    <row r="738" spans="1:4">
-      <c r="A738" s="2"/>
-      <c r="B738" s="2"/>
-      <c r="C738" s="1"/>
-      <c r="D738" s="2"/>
-    </row>
-    <row r="739" spans="1:4">
-      <c r="A739" s="2"/>
-      <c r="B739" s="2"/>
-      <c r="C739" s="1"/>
-      <c r="D739" s="2"/>
-    </row>
-    <row r="740" spans="1:4">
-      <c r="A740" s="2"/>
-      <c r="B740" s="2"/>
-      <c r="C740" s="1"/>
-      <c r="D740" s="2"/>
-    </row>
-    <row r="741" spans="1:4">
-      <c r="A741" s="2"/>
-      <c r="B741" s="2"/>
-      <c r="C741" s="1"/>
-      <c r="D741" s="2"/>
-    </row>
-    <row r="742" spans="1:4">
-      <c r="A742" s="2"/>
-      <c r="B742" s="2"/>
-      <c r="C742" s="1"/>
-      <c r="D742" s="2"/>
-    </row>
-    <row r="743" spans="1:4">
-      <c r="A743" s="2"/>
-      <c r="B743" s="2"/>
-      <c r="C743" s="1"/>
-      <c r="D743" s="2"/>
-    </row>
-    <row r="744" spans="1:4">
-      <c r="A744" s="2"/>
-      <c r="B744" s="2"/>
-      <c r="C744" s="1"/>
-      <c r="D744" s="2"/>
-    </row>
-    <row r="745" spans="1:4">
-      <c r="A745" s="2"/>
-      <c r="B745" s="2"/>
-      <c r="C745" s="1"/>
-      <c r="D745" s="2"/>
-    </row>
-    <row r="746" spans="1:4">
-      <c r="A746" s="2"/>
-      <c r="B746" s="2"/>
-      <c r="C746" s="1"/>
-      <c r="D746" s="2"/>
-    </row>
-    <row r="747" spans="1:4">
-      <c r="A747" s="2"/>
-      <c r="B747" s="2"/>
-      <c r="C747" s="1"/>
-      <c r="D747" s="2"/>
-    </row>
-    <row r="748" spans="1:4">
-      <c r="A748" s="2"/>
-      <c r="B748" s="2"/>
-      <c r="C748" s="1"/>
-      <c r="D748" s="2"/>
-    </row>
-    <row r="749" spans="1:4">
-      <c r="A749" s="2"/>
-      <c r="B749" s="2"/>
-      <c r="C749" s="1"/>
-      <c r="D749" s="2"/>
-    </row>
-    <row r="750" spans="1:4">
-      <c r="A750" s="2"/>
-      <c r="B750" s="2"/>
-      <c r="C750" s="1"/>
-      <c r="D750" s="2"/>
-    </row>
-    <row r="751" spans="1:4">
-      <c r="A751" s="2"/>
-      <c r="B751" s="2"/>
-      <c r="C751" s="1"/>
-      <c r="D751" s="2"/>
-    </row>
-    <row r="752" spans="1:4">
-      <c r="A752" s="2"/>
-      <c r="B752" s="2"/>
-      <c r="C752" s="1"/>
-      <c r="D752" s="2"/>
-    </row>
-    <row r="753" spans="1:4">
-      <c r="A753" s="2"/>
-      <c r="B753" s="2"/>
-      <c r="C753" s="1"/>
-      <c r="D753" s="2"/>
-    </row>
-    <row r="754" spans="1:4">
-      <c r="A754" s="2"/>
-      <c r="B754" s="2"/>
-      <c r="C754" s="1"/>
-      <c r="D754" s="2"/>
-    </row>
-    <row r="755" spans="1:4">
-      <c r="A755" s="2"/>
-      <c r="B755" s="2"/>
-      <c r="C755" s="1"/>
-      <c r="D755" s="2"/>
-    </row>
-    <row r="756" spans="1:4">
-      <c r="A756" s="2"/>
-      <c r="B756" s="2"/>
-      <c r="C756" s="1"/>
-      <c r="D756" s="2"/>
-    </row>
-    <row r="757" spans="1:4">
-      <c r="A757" s="2"/>
-      <c r="B757" s="2"/>
-      <c r="C757" s="1"/>
-      <c r="D757" s="2"/>
-    </row>
-    <row r="758" spans="1:4">
-      <c r="A758" s="2"/>
-      <c r="B758" s="2"/>
-      <c r="C758" s="1"/>
-      <c r="D758" s="2"/>
-    </row>
-    <row r="759" spans="1:4">
-      <c r="A759" s="2"/>
-      <c r="B759" s="2"/>
-      <c r="C759" s="1"/>
-      <c r="D759" s="2"/>
-    </row>
-    <row r="760" spans="1:4">
-      <c r="A760" s="2"/>
-      <c r="B760" s="2"/>
-      <c r="C760" s="1"/>
-      <c r="D760" s="2"/>
-    </row>
-    <row r="761" spans="1:4">
-      <c r="A761" s="2"/>
-      <c r="B761" s="2"/>
-      <c r="C761" s="1"/>
-      <c r="D761" s="2"/>
-    </row>
-    <row r="762" spans="1:4">
-      <c r="A762" s="2"/>
-      <c r="B762" s="2"/>
-      <c r="C762" s="1"/>
-      <c r="D762" s="2"/>
-    </row>
-    <row r="763" spans="1:4">
-      <c r="A763" s="2"/>
-      <c r="B763" s="2"/>
-      <c r="C763" s="1"/>
-      <c r="D763" s="2"/>
-    </row>
-    <row r="764" spans="1:4">
-      <c r="A764" s="2"/>
-      <c r="B764" s="2"/>
-      <c r="C764" s="1"/>
-      <c r="D764" s="2"/>
-    </row>
-    <row r="765" spans="1:4">
-      <c r="A765" s="2"/>
-      <c r="B765" s="2"/>
-      <c r="C765" s="1"/>
-      <c r="D765" s="2"/>
-    </row>
-    <row r="766" spans="1:4">
-      <c r="A766" s="2"/>
-      <c r="B766" s="2"/>
-      <c r="C766" s="1"/>
-      <c r="D766" s="2"/>
-    </row>
-    <row r="767" spans="1:4">
-      <c r="A767" s="2"/>
-      <c r="B767" s="2"/>
-      <c r="C767" s="1"/>
-      <c r="D767" s="2"/>
-    </row>
-    <row r="768" spans="1:4">
-      <c r="A768" s="2"/>
-      <c r="B768" s="2"/>
-      <c r="C768" s="1"/>
-      <c r="D768" s="2"/>
-    </row>
-    <row r="769" spans="1:4">
-      <c r="A769" s="2"/>
-      <c r="B769" s="2"/>
-      <c r="C769" s="1"/>
-      <c r="D769" s="2"/>
-    </row>
-    <row r="770" spans="1:4">
-      <c r="A770" s="2"/>
-      <c r="B770" s="2"/>
-      <c r="C770" s="1"/>
-      <c r="D770" s="2"/>
-    </row>
-    <row r="771" spans="1:4">
-      <c r="A771" s="2"/>
-      <c r="B771" s="2"/>
-      <c r="C771" s="1"/>
-      <c r="D771" s="2"/>
-    </row>
-    <row r="772" spans="1:4">
-      <c r="A772" s="2"/>
-      <c r="B772" s="2"/>
-      <c r="C772" s="1"/>
-      <c r="D772" s="2"/>
-    </row>
-    <row r="773" spans="1:4">
-      <c r="A773" s="2"/>
-      <c r="B773" s="2"/>
-      <c r="C773" s="1"/>
-      <c r="D773" s="2"/>
-    </row>
-    <row r="774" spans="1:4">
-      <c r="A774" s="2"/>
-      <c r="B774" s="2"/>
-      <c r="C774" s="1"/>
-      <c r="D774" s="2"/>
-    </row>
-    <row r="775" spans="1:4">
-      <c r="A775" s="2"/>
-      <c r="B775" s="2"/>
-      <c r="C775" s="1"/>
-      <c r="D775" s="2"/>
-    </row>
-    <row r="776" spans="1:4">
-      <c r="A776" s="2"/>
-      <c r="B776" s="2"/>
-      <c r="C776" s="1"/>
-      <c r="D776" s="2"/>
-    </row>
-    <row r="777" spans="1:4">
-      <c r="A777" s="2"/>
-      <c r="B777" s="2"/>
-      <c r="C777" s="1"/>
-      <c r="D777" s="2"/>
-    </row>
-    <row r="778" spans="1:4">
-      <c r="A778" s="2"/>
-      <c r="B778" s="2"/>
-      <c r="C778" s="1"/>
-      <c r="D778" s="2"/>
-    </row>
-    <row r="779" spans="1:4">
-      <c r="A779" s="2"/>
-      <c r="B779" s="2"/>
-      <c r="C779" s="1"/>
-      <c r="D779" s="2"/>
-    </row>
-    <row r="780" spans="1:4">
-      <c r="A780" s="2"/>
-      <c r="B780" s="2"/>
-      <c r="C780" s="1"/>
-      <c r="D780" s="2"/>
-    </row>
-    <row r="781" spans="1:4">
-      <c r="A781" s="2"/>
-      <c r="B781" s="2"/>
-      <c r="C781" s="1"/>
-      <c r="D781" s="2"/>
-    </row>
-    <row r="782" spans="1:4">
-      <c r="A782" s="2"/>
-      <c r="B782" s="2"/>
-      <c r="C782" s="1"/>
-      <c r="D782" s="2"/>
-    </row>
-    <row r="783" spans="1:4">
-      <c r="A783" s="2"/>
-      <c r="B783" s="2"/>
-      <c r="C783" s="1"/>
-      <c r="D783" s="2"/>
-    </row>
-    <row r="784" spans="1:4">
-      <c r="A784" s="2"/>
-      <c r="B784" s="2"/>
-      <c r="C784" s="1"/>
-      <c r="D784" s="2"/>
-    </row>
-    <row r="785" spans="1:4">
-      <c r="A785" s="2"/>
-      <c r="B785" s="2"/>
-      <c r="C785" s="1"/>
-      <c r="D785" s="2"/>
-    </row>
-    <row r="786" spans="1:4">
-      <c r="A786" s="2"/>
-      <c r="B786" s="2"/>
-      <c r="C786" s="1"/>
-      <c r="D786" s="2"/>
-    </row>
-    <row r="787" spans="1:4">
-      <c r="A787" s="2"/>
-      <c r="B787" s="2"/>
-      <c r="C787" s="1"/>
-      <c r="D787" s="2"/>
-    </row>
-    <row r="788" spans="1:4">
-      <c r="A788" s="2"/>
-      <c r="B788" s="2"/>
-      <c r="C788" s="1"/>
-      <c r="D788" s="2"/>
-    </row>
-    <row r="789" spans="1:4">
-      <c r="A789" s="2"/>
-      <c r="B789" s="2"/>
-      <c r="C789" s="1"/>
-      <c r="D789" s="2"/>
-    </row>
-    <row r="790" spans="1:4">
-      <c r="A790" s="2"/>
-      <c r="B790" s="2"/>
-      <c r="C790" s="1"/>
-      <c r="D790" s="2"/>
-    </row>
-    <row r="791" spans="1:4">
-      <c r="A791" s="2"/>
-      <c r="B791" s="2"/>
-      <c r="C791" s="1"/>
-      <c r="D791" s="2"/>
-    </row>
-    <row r="792" spans="1:4">
-      <c r="A792" s="2"/>
-      <c r="B792" s="2"/>
-      <c r="C792" s="1"/>
-      <c r="D792" s="2"/>
-    </row>
-    <row r="793" spans="1:4">
-      <c r="A793" s="2"/>
-      <c r="B793" s="2"/>
-      <c r="C793" s="1"/>
-      <c r="D793" s="2"/>
-    </row>
-    <row r="794" spans="1:4">
-      <c r="A794" s="2"/>
-      <c r="B794" s="2"/>
-      <c r="C794" s="1"/>
-      <c r="D794" s="2"/>
-    </row>
-    <row r="795" spans="1:4">
-      <c r="A795" s="2"/>
-      <c r="B795" s="2"/>
-      <c r="C795" s="1"/>
-      <c r="D795" s="2"/>
-    </row>
-    <row r="796" spans="1:4">
-      <c r="A796" s="2"/>
-      <c r="B796" s="2"/>
-      <c r="C796" s="1"/>
-      <c r="D796" s="2"/>
-    </row>
-    <row r="797" spans="1:4">
-      <c r="A797" s="2"/>
-      <c r="B797" s="2"/>
-      <c r="C797" s="1"/>
-      <c r="D797" s="2"/>
-    </row>
-    <row r="798" spans="1:4">
-      <c r="A798" s="2"/>
-      <c r="B798" s="2"/>
-      <c r="C798" s="1"/>
-      <c r="D798" s="2"/>
-    </row>
-    <row r="799" spans="1:4">
-      <c r="A799" s="2"/>
-      <c r="B799" s="2"/>
-      <c r="C799" s="1"/>
-      <c r="D799" s="2"/>
-    </row>
-    <row r="800" spans="1:4">
-      <c r="A800" s="2"/>
-      <c r="B800" s="2"/>
-      <c r="C800" s="1"/>
-      <c r="D800" s="2"/>
-    </row>
-    <row r="801" spans="1:4">
-      <c r="A801" s="2"/>
-      <c r="B801" s="2"/>
-      <c r="C801" s="1"/>
-      <c r="D801" s="2"/>
-    </row>
-    <row r="802" spans="1:4">
-      <c r="A802" s="2"/>
-      <c r="B802" s="2"/>
-      <c r="C802" s="1"/>
-      <c r="D802" s="2"/>
-    </row>
-    <row r="803" spans="1:4">
-      <c r="A803" s="2"/>
-      <c r="B803" s="2"/>
-      <c r="C803" s="1"/>
-      <c r="D803" s="2"/>
-    </row>
-    <row r="804" spans="1:4">
-      <c r="A804" s="2"/>
-      <c r="B804" s="2"/>
-      <c r="C804" s="1"/>
-      <c r="D804" s="2"/>
-    </row>
-    <row r="805" spans="1:4">
-      <c r="A805" s="2"/>
-      <c r="B805" s="2"/>
-      <c r="C805" s="1"/>
-      <c r="D805" s="2"/>
-    </row>
-    <row r="806" spans="1:4">
-      <c r="A806" s="2"/>
-      <c r="B806" s="2"/>
-      <c r="C806" s="1"/>
-      <c r="D806" s="2"/>
-    </row>
-    <row r="807" spans="1:4">
-      <c r="A807" s="2"/>
-      <c r="B807" s="2"/>
-      <c r="C807" s="1"/>
-      <c r="D807" s="2"/>
-    </row>
-    <row r="808" spans="1:4">
-      <c r="A808" s="2"/>
-      <c r="B808" s="2"/>
-      <c r="C808" s="1"/>
-      <c r="D808" s="2"/>
-    </row>
-    <row r="809" spans="1:4">
-      <c r="A809" s="2"/>
-      <c r="B809" s="2"/>
-      <c r="C809" s="1"/>
-      <c r="D809" s="2"/>
-    </row>
-    <row r="810" spans="1:4">
-      <c r="A810" s="2"/>
-      <c r="B810" s="2"/>
-      <c r="C810" s="1"/>
-      <c r="D810" s="2"/>
-    </row>
-    <row r="811" spans="1:4">
-      <c r="A811" s="2"/>
-      <c r="B811" s="2"/>
-      <c r="C811" s="1"/>
-      <c r="D811" s="2"/>
-    </row>
-    <row r="812" spans="1:4">
-      <c r="A812" s="2"/>
-      <c r="B812" s="2"/>
-      <c r="C812" s="1"/>
-      <c r="D812" s="2"/>
-    </row>
-    <row r="813" spans="1:4">
-      <c r="A813" s="2"/>
-      <c r="B813" s="2"/>
-      <c r="C813" s="1"/>
-      <c r="D813" s="2"/>
-    </row>
-    <row r="814" spans="1:4">
-      <c r="A814" s="2"/>
-      <c r="B814" s="2"/>
-      <c r="C814" s="1"/>
-      <c r="D814" s="2"/>
-    </row>
-    <row r="815" spans="1:4">
-      <c r="A815" s="2"/>
-      <c r="B815" s="2"/>
-      <c r="C815" s="1"/>
-      <c r="D815" s="2"/>
-    </row>
-    <row r="816" spans="1:4">
-      <c r="A816" s="2"/>
-      <c r="B816" s="2"/>
-      <c r="C816" s="1"/>
-      <c r="D816" s="2"/>
-    </row>
-    <row r="817" spans="1:4">
-      <c r="A817" s="2"/>
-      <c r="B817" s="2"/>
-      <c r="C817" s="1"/>
-      <c r="D817" s="2"/>
-    </row>
-    <row r="818" spans="1:4">
-      <c r="A818" s="2"/>
-      <c r="B818" s="2"/>
-      <c r="C818" s="1"/>
-      <c r="D818" s="2"/>
-    </row>
-    <row r="819" spans="1:4">
-      <c r="A819" s="2"/>
-      <c r="B819" s="2"/>
-      <c r="C819" s="1"/>
-      <c r="D819" s="2"/>
-    </row>
-    <row r="820" spans="1:4">
-      <c r="A820" s="2"/>
-      <c r="B820" s="2"/>
-      <c r="C820" s="1"/>
-      <c r="D820" s="2"/>
-    </row>
-    <row r="821" spans="1:4">
-      <c r="A821" s="2"/>
-      <c r="B821" s="2"/>
-      <c r="C821" s="1"/>
-      <c r="D821" s="2"/>
-    </row>
-    <row r="822" spans="1:4">
-      <c r="A822" s="2"/>
-      <c r="B822" s="2"/>
-      <c r="C822" s="1"/>
-      <c r="D822" s="2"/>
-    </row>
-    <row r="823" spans="1:4">
-      <c r="A823" s="2"/>
-      <c r="B823" s="2"/>
-      <c r="C823" s="1"/>
-      <c r="D823" s="2"/>
-    </row>
-    <row r="824" spans="1:4">
-      <c r="A824" s="2"/>
-      <c r="B824" s="2"/>
-      <c r="C824" s="1"/>
-      <c r="D824" s="2"/>
-    </row>
-    <row r="825" spans="1:4">
-      <c r="A825" s="2"/>
-      <c r="B825" s="2"/>
-      <c r="C825" s="1"/>
-      <c r="D825" s="2"/>
-    </row>
-    <row r="826" spans="1:4">
-      <c r="A826" s="2"/>
-      <c r="B826" s="2"/>
-      <c r="C826" s="1"/>
-      <c r="D826" s="2"/>
-    </row>
-    <row r="827" spans="1:4">
-      <c r="A827" s="2"/>
-      <c r="B827" s="2"/>
-      <c r="C827" s="1"/>
-      <c r="D827" s="2"/>
-    </row>
-    <row r="828" spans="1:4">
-      <c r="A828" s="2"/>
-      <c r="B828" s="2"/>
-      <c r="C828" s="1"/>
-      <c r="D828" s="2"/>
-    </row>
-    <row r="829" spans="1:4">
-      <c r="A829" s="2"/>
-      <c r="B829" s="2"/>
-      <c r="C829" s="1"/>
-      <c r="D829" s="2"/>
-    </row>
-    <row r="830" spans="1:4">
-      <c r="A830" s="2"/>
-      <c r="B830" s="2"/>
-      <c r="C830" s="1"/>
-      <c r="D830" s="2"/>
-    </row>
-    <row r="831" spans="1:4">
-      <c r="A831" s="2"/>
-      <c r="B831" s="2"/>
-      <c r="C831" s="1"/>
-      <c r="D831" s="2"/>
-    </row>
-    <row r="832" spans="1:4">
-      <c r="A832" s="2"/>
-      <c r="B832" s="2"/>
-      <c r="C832" s="1"/>
-      <c r="D832" s="2"/>
-    </row>
-    <row r="833" spans="1:4">
-      <c r="A833" s="2"/>
-      <c r="B833" s="2"/>
-      <c r="C833" s="1"/>
-      <c r="D833" s="2"/>
-    </row>
-    <row r="834" spans="1:4">
-      <c r="A834" s="2"/>
-      <c r="B834" s="2"/>
-      <c r="C834" s="1"/>
-      <c r="D834" s="2"/>
-    </row>
-    <row r="835" spans="1:4">
-      <c r="A835" s="2"/>
-      <c r="B835" s="2"/>
-      <c r="C835" s="1"/>
-      <c r="D835" s="2"/>
-    </row>
-    <row r="836" spans="1:4">
-      <c r="A836" s="2"/>
-      <c r="B836" s="2"/>
-      <c r="C836" s="1"/>
-      <c r="D836" s="2"/>
-    </row>
-    <row r="837" spans="1:4">
-      <c r="A837" s="2"/>
-      <c r="B837" s="2"/>
-      <c r="C837" s="1"/>
-      <c r="D837" s="2"/>
-    </row>
-    <row r="838" spans="1:4">
-      <c r="A838" s="2"/>
-      <c r="B838" s="2"/>
-      <c r="C838" s="1"/>
-      <c r="D838" s="2"/>
-    </row>
-    <row r="839" spans="1:4">
-      <c r="A839" s="2"/>
-      <c r="B839" s="2"/>
-      <c r="C839" s="1"/>
-      <c r="D839" s="2"/>
-    </row>
-    <row r="840" spans="1:4">
-      <c r="A840" s="2"/>
-      <c r="B840" s="2"/>
-      <c r="C840" s="1"/>
-      <c r="D840" s="2"/>
-    </row>
-    <row r="841" spans="1:4">
-      <c r="A841" s="2"/>
-      <c r="B841" s="2"/>
-      <c r="C841" s="1"/>
-      <c r="D841" s="2"/>
-    </row>
-    <row r="842" spans="1:4">
-      <c r="A842" s="2"/>
-      <c r="B842" s="2"/>
-      <c r="C842" s="1"/>
-      <c r="D842" s="2"/>
-    </row>
-    <row r="843" spans="1:4">
-      <c r="A843" s="2"/>
-      <c r="B843" s="2"/>
-      <c r="C843" s="1"/>
-      <c r="D843" s="2"/>
-    </row>
-    <row r="844" spans="1:4">
-      <c r="A844" s="2"/>
-      <c r="B844" s="2"/>
-      <c r="C844" s="1"/>
-      <c r="D844" s="2"/>
-    </row>
-    <row r="845" spans="1:4">
-      <c r="A845" s="2"/>
-      <c r="B845" s="2"/>
-      <c r="C845" s="1"/>
-      <c r="D845" s="2"/>
-    </row>
-    <row r="846" spans="1:4">
-      <c r="A846" s="2"/>
-      <c r="B846" s="2"/>
-      <c r="C846" s="1"/>
-      <c r="D846" s="2"/>
-    </row>
-    <row r="847" spans="1:4">
-      <c r="A847" s="2"/>
-      <c r="B847" s="2"/>
-      <c r="C847" s="1"/>
-      <c r="D847" s="2"/>
-    </row>
-    <row r="848" spans="1:4">
-      <c r="A848" s="2"/>
-      <c r="B848" s="2"/>
-      <c r="C848" s="1"/>
-      <c r="D848" s="2"/>
-    </row>
-    <row r="849" spans="1:4">
-      <c r="A849" s="2"/>
-      <c r="B849" s="2"/>
-      <c r="C849" s="1"/>
-      <c r="D849" s="2"/>
-    </row>
-    <row r="850" spans="1:4">
-      <c r="A850" s="2"/>
-      <c r="B850" s="2"/>
-      <c r="C850" s="1"/>
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851" spans="1:4">
-      <c r="A851" s="2"/>
-      <c r="B851" s="2"/>
-      <c r="C851" s="1"/>
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852" spans="1:4">
-      <c r="A852" s="2"/>
-      <c r="B852" s="2"/>
-      <c r="C852" s="1"/>
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853" spans="1:4">
-      <c r="A853" s="2"/>
-      <c r="B853" s="2"/>
-      <c r="C853" s="1"/>
-      <c r="D853" s="2"/>
-    </row>
-    <row r="854" spans="1:4">
-      <c r="A854" s="2"/>
-      <c r="B854" s="2"/>
-      <c r="C854" s="1"/>
-      <c r="D854" s="2"/>
-    </row>
-    <row r="855" spans="1:4">
-      <c r="A855" s="2"/>
-      <c r="B855" s="2"/>
-      <c r="C855" s="1"/>
-      <c r="D855" s="2"/>
-    </row>
-    <row r="856" spans="1:4">
-      <c r="A856" s="2"/>
-      <c r="B856" s="2"/>
-      <c r="C856" s="1"/>
-      <c r="D856" s="2"/>
-    </row>
-    <row r="857" spans="1:4">
-      <c r="A857" s="2"/>
-      <c r="B857" s="2"/>
-      <c r="C857" s="1"/>
-      <c r="D857" s="2"/>
-    </row>
-    <row r="858" spans="1:4">
-      <c r="A858" s="2"/>
-      <c r="B858" s="2"/>
-      <c r="C858" s="1"/>
-      <c r="D858" s="2"/>
-    </row>
-    <row r="859" spans="1:4">
-      <c r="A859" s="2"/>
-      <c r="B859" s="2"/>
-      <c r="C859" s="1"/>
-      <c r="D859" s="2"/>
-    </row>
-    <row r="860" spans="1:4">
-      <c r="A860" s="2"/>
-      <c r="B860" s="2"/>
-      <c r="C860" s="1"/>
-      <c r="D860" s="2"/>
-    </row>
-    <row r="861" spans="1:4">
-      <c r="A861" s="2"/>
-      <c r="B861" s="2"/>
-      <c r="C861" s="1"/>
-      <c r="D861" s="2"/>
-    </row>
-    <row r="862" spans="1:4">
-      <c r="A862" s="2"/>
-      <c r="B862" s="2"/>
-      <c r="C862" s="1"/>
-      <c r="D862" s="2"/>
-    </row>
-    <row r="863" spans="1:4">
-      <c r="A863" s="2"/>
-      <c r="B863" s="2"/>
-      <c r="C863" s="1"/>
-      <c r="D863" s="2"/>
-    </row>
-    <row r="864" spans="1:4">
-      <c r="A864" s="2"/>
-      <c r="B864" s="2"/>
-      <c r="C864" s="1"/>
-      <c r="D864" s="2"/>
-    </row>
-    <row r="865" spans="1:4">
-      <c r="A865" s="2"/>
-      <c r="B865" s="2"/>
-      <c r="C865" s="1"/>
-      <c r="D865" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
